--- a/Player Clutch Statistics 1.xlsx
+++ b/Player Clutch Statistics 1.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>9.08</v>
+        <v>0.09077269317329326</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>17.08</v>
+        <v>0.1707836456558773</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -604,11 +604,11 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>19.71</v>
+        <v>0.1970705725699067</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3.87</v>
+        <v>0.03867187499999994</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>7.66</v>
+        <v>0.0766347355268638</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -736,11 +736,11 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11.18</v>
+        <v>0.1117877337973032</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.16</v>
+        <v>0.001574803149606406</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>9.9</v>
+        <v>0.09903593339176152</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>7.48</v>
+        <v>0.07475010864841368</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>8.24</v>
+        <v>0.0823838737949167</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>-3.97</v>
+        <v>-0.0397456279809221</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1000,11 +1000,11 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>10.54</v>
+        <v>0.1053595968850207</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>-3.56</v>
+        <v>-0.03560000000000002</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>-6.82</v>
+        <v>-0.06822612085769982</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>9.109999999999999</v>
+        <v>0.0910755148741418</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8.51</v>
+        <v>0.0850869167429094</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>-5.17</v>
+        <v>-0.05170340681362722</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>-1.63</v>
+        <v>-0.01629072681704263</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4.69</v>
+        <v>0.04689593568557394</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>0.03996447602131448</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1396,11 +1396,11 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>16.4</v>
+        <v>0.1640159045725647</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>-1.31</v>
+        <v>-0.01306913996627313</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1484,11 +1484,11 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>-10.49</v>
+        <v>-0.1049004594180705</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7.19</v>
+        <v>0.07192254495159053</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1572,11 +1572,11 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>11.05</v>
+        <v>0.1105263157894738</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>-4.37</v>
+        <v>-0.04372937293729368</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1660,11 +1660,11 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>12.75</v>
+        <v>0.1274939172749392</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -1704,11 +1704,11 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>11.94</v>
+        <v>0.1194390715667311</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>-1.11</v>
+        <v>-0.01112061591103499</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0.35</v>
+        <v>0.00347372991749884</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>-7.82</v>
+        <v>-0.07824351297405192</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>-0.13</v>
+        <v>-0.001302083333333229</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3.14</v>
+        <v>0.03143242029636279</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>9.24</v>
+        <v>0.09243295019157087</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2.33</v>
+        <v>0.02334979793444093</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>-0.35</v>
+        <v>-0.003502626970227596</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2100,11 +2100,11 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>15.65</v>
+        <v>0.1564729867482161</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>-5.82</v>
+        <v>-0.05818786367414791</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>-1.26</v>
+        <v>-0.01264167393199663</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1.39</v>
+        <v>0.01388266905508295</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>4.64</v>
+        <v>0.04642525533890437</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1.03</v>
+        <v>0.01030927835051548</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>6.79</v>
+        <v>0.06793349168646079</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>-5.96</v>
+        <v>-0.05958875367184215</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0.13</v>
+        <v>0.001340482573726592</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>8.93</v>
+        <v>0.08931185944363114</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>-0.4</v>
+        <v>-0.004016064257028106</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>-1.72</v>
+        <v>-0.01720335244816941</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2.87</v>
+        <v>0.02866389274156269</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2.92</v>
+        <v>0.02922077922077934</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3.35</v>
+        <v>0.03353516534699592</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>4.34</v>
+        <v>0.04339622641509442</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>9.19</v>
+        <v>0.09194831013916489</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>-1.57</v>
+        <v>-0.01572327044025163</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2892,11 +2892,11 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>-10.92</v>
+        <v>-0.1091578086672118</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3.91</v>
+        <v>0.03912213740458016</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>-1.18</v>
+        <v>-0.01183970856102011</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3024,11 +3024,11 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>-12.52</v>
+        <v>-0.1252019386106624</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1.37</v>
+        <v>0.01371158392435001</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>-7.12</v>
+        <v>-0.07118055555555558</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>-1.38</v>
+        <v>-0.0138376383763838</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>-1.8</v>
+        <v>-0.01801385681293289</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2.51</v>
+        <v>0.02510864316755189</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>-8.82</v>
+        <v>-0.08817204301075272</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3332,11 +3332,11 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>23.6</v>
+        <v>0.2359813084112149</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Heavily Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>-9.66</v>
+        <v>-0.09660798626019751</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1.7</v>
+        <v>0.01699854298203018</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>-1.04</v>
+        <v>-0.0104265402843603</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>-4.1</v>
+        <v>-0.04097605893186006</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3552,11 +3552,11 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>10.43</v>
+        <v>0.1042553191489362</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>-5.22</v>
+        <v>-0.05215004574565419</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3640,11 +3640,11 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>49.28</v>
+        <v>0.4927849927849929</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Heavily Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>4.03</v>
+        <v>0.04026170105686969</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0.59</v>
+        <v>0.005862237420615584</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3.31</v>
+        <v>0.03311590566984447</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>4.36</v>
+        <v>0.04363267376966004</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>7.71</v>
+        <v>0.0770844257996853</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3904,11 +3904,11 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>10.5</v>
+        <v>0.1049515608180841</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>-1.91</v>
+        <v>-0.01911132345914948</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3992,11 +3992,11 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>-12.69</v>
+        <v>-0.126916524701874</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1.24</v>
+        <v>0.01238236750866766</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.009415262636273602</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -4124,11 +4124,11 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>-12.85</v>
+        <v>-0.1284796573875803</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -4168,11 +4168,11 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>-10.09</v>
+        <v>-0.1008849557522124</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>-9.220000000000001</v>
+        <v>-0.09221128021486118</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>-6.04</v>
+        <v>-0.06035283194057571</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>-1.7</v>
+        <v>-0.01703992210321314</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>-7.93</v>
+        <v>-0.0793433652530779</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>-4.59</v>
+        <v>-0.04586288416075645</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>-0.45</v>
+        <v>-0.004482071713147404</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>-2.73</v>
+        <v>-0.02730375426621171</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>-8.619999999999999</v>
+        <v>-0.08619899128839978</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>-5.24</v>
+        <v>-0.05240590757503563</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -4608,11 +4608,11 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>-10.05</v>
+        <v>-0.1004524886877829</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>-2.12</v>
+        <v>-0.02121361618154907</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4696,11 +4696,11 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>11.04</v>
+        <v>0.1104225352112677</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -4740,7 +4740,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>-9.789999999999999</v>
+        <v>-0.09793103448275857</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2.62</v>
+        <v>0.02621919244887257</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -4828,11 +4828,11 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>-10.98</v>
+        <v>-0.1097949886104784</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1.25</v>
+        <v>0.01246753246753239</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>4.2</v>
+        <v>0.04202586206896558</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -4960,11 +4960,11 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>-12.26</v>
+        <v>-0.1225601452564686</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>7.64</v>
+        <v>0.07640825432236481</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>4.04</v>
+        <v>0.04043126684636118</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -5092,11 +5092,11 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>12.14</v>
+        <v>0.1214410226612434</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>-5.49</v>
+        <v>-0.05492888670917121</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>7.36</v>
+        <v>0.07357859531772576</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>2.72</v>
+        <v>0.02720000000000008</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -5268,11 +5268,11 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>-12.18</v>
+        <v>-0.12183908045977</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -5312,11 +5312,11 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>14.3</v>
+        <v>0.1430281268701377</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>-9.18</v>
+        <v>-0.09177365668093199</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>-9.199999999999999</v>
+        <v>-0.09199237368922782</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -5444,11 +5444,11 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>-23.99</v>
+        <v>-0.2399201596806388</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>-0.57</v>
+        <v>-0.005744125326370728</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>-6.12</v>
+        <v>-0.06123456790123449</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>-7.19</v>
+        <v>-0.07188264058679701</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>-8.720000000000001</v>
+        <v>-0.0871868978805396</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>-3.13</v>
+        <v>-0.03128205128205126</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>-5.56</v>
+        <v>-0.05555555555555552</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>7.52</v>
+        <v>0.07521367521367522</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -5796,11 +5796,11 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>-22.89</v>
+        <v>-0.2289452166802944</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>-6.18</v>
+        <v>-0.06175298804780869</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>-8.99</v>
+        <v>-0.08989850169163861</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -5928,11 +5928,11 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>-15.23</v>
+        <v>-0.1523208652546193</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>-4.62</v>
+        <v>-0.04619289340101524</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>4</v>
+        <v>0.03999999999999994</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -6060,11 +6060,11 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>-19.14</v>
+        <v>-0.1914248592464269</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -6104,7 +6104,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>5.91</v>
+        <v>0.0591245025582717</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -6148,11 +6148,11 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>11.17</v>
+        <v>0.1117084826762247</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>-4.42</v>
+        <v>-0.04421593830334188</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0.65</v>
+        <v>0.006535947712418355</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>-6.44</v>
+        <v>-0.06440162271805272</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -6324,11 +6324,11 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>-12.66</v>
+        <v>-0.1266002844950213</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -6368,11 +6368,11 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>-11.67</v>
+        <v>-0.11671469740634</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -6412,11 +6412,11 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>14.74</v>
+        <v>0.1474078700811992</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6456,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>-7.15</v>
+        <v>-0.07150101419878298</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>-7.63</v>
+        <v>-0.07626262626262634</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -6544,11 +6544,11 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>-15.28</v>
+        <v>-0.1528485409911997</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -6588,11 +6588,11 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>-14.71</v>
+        <v>-0.1470725995316159</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -6632,11 +6632,11 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>-15.36</v>
+        <v>-0.1536312849162011</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -6676,11 +6676,11 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>12.31</v>
+        <v>0.1231435643564355</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -6720,11 +6720,11 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>-16.87</v>
+        <v>-0.1687356321839081</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>-4.09</v>
+        <v>-0.0408704883227176</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0.28</v>
+        <v>0.002774694783573846</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>-7.16</v>
+        <v>-0.07161257083977333</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>-4.56</v>
+        <v>-0.04559915164369032</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>-3.08</v>
+        <v>-0.0308274743104379</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>6.29</v>
+        <v>0.06287069988137617</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -7028,11 +7028,11 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>16.89</v>
+        <v>0.1689497716894978</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -7072,11 +7072,11 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>-10.09</v>
+        <v>-0.1008529854490716</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>9.33</v>
+        <v>0.09334960341671758</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>-8.34</v>
+        <v>-0.08337595907928383</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>-6.26</v>
+        <v>-0.06263269639065816</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>-6.96</v>
+        <v>-0.06960680127523904</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>-5.11</v>
+        <v>-0.05114254624591936</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>-2.95</v>
+        <v>-0.02949360044518629</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -7424,11 +7424,11 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>-16.1</v>
+        <v>-0.1610251450676982</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -7468,7 +7468,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>-2.98</v>
+        <v>-0.0297585626052778</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>-9.630000000000001</v>
+        <v>-0.09633507853403139</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -7556,11 +7556,11 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>10.15</v>
+        <v>0.1015325670498084</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -7600,7 +7600,7 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>-8.550000000000001</v>
+        <v>-0.08545647558386409</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>-6.26</v>
+        <v>-0.06256800870511418</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>-2</v>
+        <v>-0.01997716894977157</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -7732,11 +7732,11 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>-17.36</v>
+        <v>-0.1735776277724204</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -7776,11 +7776,11 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>12.29</v>
+        <v>0.1229454306377381</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -7820,11 +7820,11 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>-10.25</v>
+        <v>-0.1025236593059937</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -7864,7 +7864,7 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>-9.66</v>
+        <v>-0.09655172413793105</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>-5.83</v>
+        <v>-0.05826859045504999</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>4.82</v>
+        <v>0.04820766378244754</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>9.26</v>
+        <v>0.0925566343042071</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>5.31</v>
+        <v>0.05309181761399111</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -8084,11 +8084,11 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>-16.13</v>
+        <v>-0.1612742658038825</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>-0.18</v>
+        <v>-0.001787842669845121</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -8172,11 +8172,11 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>-10.68</v>
+        <v>-0.1067805659369995</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -8216,7 +8216,7 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2.45</v>
+        <v>0.02449479485609321</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -8260,11 +8260,11 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>-10.07</v>
+        <v>-0.1007000538502962</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -8304,11 +8304,11 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>-11.34</v>
+        <v>-0.1133689839572193</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -8348,11 +8348,11 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>-17.22</v>
+        <v>-0.1722416375436846</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -8392,11 +8392,11 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>-22.4</v>
+        <v>-0.2239925023430179</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -8436,11 +8436,11 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>20.66</v>
+        <v>0.2065934065934065</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Heavily Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -8480,11 +8480,11 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>-19.3</v>
+        <v>-0.1930426261636453</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0.3</v>
+        <v>0.003045066991473639</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
@@ -8568,11 +8568,11 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>-10.01</v>
+        <v>-0.1001094091903721</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>-7.86</v>
+        <v>-0.07860752386299824</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -8656,11 +8656,11 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>-14.77</v>
+        <v>-0.1477035490605429</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -8700,11 +8700,11 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>-14.56</v>
+        <v>-0.1456259821896281</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -8744,11 +8744,11 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>-13.26</v>
+        <v>-0.1325878594249202</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -8788,7 +8788,7 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>2.78</v>
+        <v>0.02779532533164874</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>-8.609999999999999</v>
+        <v>-0.08605174353205855</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>-4.64</v>
+        <v>-0.04641598119858985</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
@@ -8920,11 +8920,11 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>-21</v>
+        <v>-0.2100389863547758</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -8964,11 +8964,11 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>-20.5</v>
+        <v>-0.2050024521824423</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -9008,11 +9008,11 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>-10.66</v>
+        <v>-0.1066298342541436</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -9052,11 +9052,11 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>-10.33</v>
+        <v>-0.1032759578012217</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>2.15</v>
+        <v>0.02153261557948068</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -9140,11 +9140,11 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>-10.74</v>
+        <v>-0.107360265633647</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -9184,11 +9184,11 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>-16.79</v>
+        <v>-0.1678719008264463</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -9228,7 +9228,7 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>-2.25</v>
+        <v>-0.02253349573690627</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>-9.539999999999999</v>
+        <v>-0.09537246049661387</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>-3.2</v>
+        <v>-0.03204353083434085</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
@@ -9360,11 +9360,11 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>-13.11</v>
+        <v>-0.1311207834602828</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -9404,7 +9404,7 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>-4.31</v>
+        <v>-0.04313960455362496</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0.63</v>
+        <v>0.006333122229259115</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>-9.85</v>
+        <v>-0.09851936218678808</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
@@ -9536,11 +9536,11 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>-18.76</v>
+        <v>-0.1875642343268243</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -9580,7 +9580,7 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>6.75</v>
+        <v>0.06752194463200539</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>-4.49</v>
+        <v>-0.04487568223165546</v>
       </c>
       <c r="J209" t="inlineStr">
         <is>
@@ -9668,11 +9668,11 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>-13.03</v>
+        <v>-0.1303147432357813</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -9712,11 +9712,11 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>-24.13</v>
+        <v>-0.2413294797687862</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -9756,11 +9756,11 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>-11.93</v>
+        <v>-0.1192609182530795</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -9800,11 +9800,11 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>-11.28</v>
+        <v>-0.1128031584884377</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -9844,11 +9844,11 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>-16.76</v>
+        <v>-0.1676392572944298</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -9888,11 +9888,11 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>-18.49</v>
+        <v>-0.184935064935065</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -9932,11 +9932,11 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>-20.61</v>
+        <v>-0.2060913705583756</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -9976,7 +9976,7 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>-7.93</v>
+        <v>-0.07928994082840227</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
@@ -10020,11 +10020,11 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>-17.52</v>
+        <v>-0.1751592356687899</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10064,11 +10064,11 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>-11.45</v>
+        <v>-0.1145299145299146</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>8.630000000000001</v>
+        <v>0.08631578947368423</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
@@ -10152,11 +10152,11 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>-15.22</v>
+        <v>-0.1522453450164294</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10196,11 +10196,11 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>-12.07</v>
+        <v>-0.1206602162777462</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10240,11 +10240,11 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>-17.32</v>
+        <v>-0.1732114039806348</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10284,11 +10284,11 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>-22.77</v>
+        <v>-0.2277327935222673</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10328,11 +10328,11 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>-23.57</v>
+        <v>-0.2357071213640923</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10372,11 +10372,11 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>-10.06</v>
+        <v>-0.1005917159763313</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10416,11 +10416,11 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>-11.55</v>
+        <v>-0.1154518950437317</v>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10460,7 +10460,7 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>-3.25</v>
+        <v>-0.03252551020408162</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
@@ -10504,11 +10504,11 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>-11.82</v>
+        <v>-0.1181606519208381</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10548,7 +10548,7 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>-3.32</v>
+        <v>-0.03318442884492658</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
@@ -10592,11 +10592,11 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>-29.73</v>
+        <v>-0.2973098330241187</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10636,11 +10636,11 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>-22.29</v>
+        <v>-0.2229070364663584</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10680,11 +10680,11 @@
         </is>
       </c>
       <c r="I233" t="n">
-        <v>-21.75</v>
+        <v>-0.2175038839979285</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10724,11 +10724,11 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>-28.66</v>
+        <v>-0.2865911237016053</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10768,11 +10768,11 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>-16.68</v>
+        <v>-0.1667586968525676</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10812,11 +10812,11 @@
         </is>
       </c>
       <c r="I236" t="n">
-        <v>-17</v>
+        <v>-0.16996699669967</v>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10856,11 +10856,11 @@
         </is>
       </c>
       <c r="I237" t="n">
-        <v>-26.92</v>
+        <v>-0.2692493946731234</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10900,11 +10900,11 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>-19.46</v>
+        <v>-0.1946380697050938</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10944,11 +10944,11 @@
         </is>
       </c>
       <c r="I239" t="n">
-        <v>-10.79</v>
+        <v>-0.1078665077473183</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -10988,7 +10988,7 @@
         </is>
       </c>
       <c r="I240" t="n">
-        <v>-1.58</v>
+        <v>-0.01577909270216964</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
@@ -11032,11 +11032,11 @@
         </is>
       </c>
       <c r="I241" t="n">
-        <v>-20.26</v>
+        <v>-0.202572347266881</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11076,11 +11076,11 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>-13.84</v>
+        <v>-0.1383720930232558</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11120,11 +11120,11 @@
         </is>
       </c>
       <c r="I243" t="n">
-        <v>-21.52</v>
+        <v>-0.2151965993623805</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11164,11 +11164,11 @@
         </is>
       </c>
       <c r="I244" t="n">
-        <v>-17.65</v>
+        <v>-0.1764705882352942</v>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11208,11 +11208,11 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>-15.42</v>
+        <v>-0.1542028985507246</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11252,11 +11252,11 @@
         </is>
       </c>
       <c r="I246" t="n">
-        <v>-16.29</v>
+        <v>-0.1629374641422834</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11296,11 +11296,11 @@
         </is>
       </c>
       <c r="I247" t="n">
-        <v>-20</v>
+        <v>-0.1999999999999999</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11340,11 +11340,11 @@
         </is>
       </c>
       <c r="I248" t="n">
-        <v>-25.08</v>
+        <v>-0.2507739938080495</v>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11384,11 +11384,11 @@
         </is>
       </c>
       <c r="I249" t="n">
-        <v>-29.24</v>
+        <v>-0.2923976608187134</v>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11428,11 +11428,11 @@
         </is>
       </c>
       <c r="I250" t="n">
-        <v>-17.64</v>
+        <v>-0.176437108708025</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11472,11 +11472,11 @@
         </is>
       </c>
       <c r="I251" t="n">
-        <v>-10.89</v>
+        <v>-0.1089108910891089</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11516,11 +11516,11 @@
         </is>
       </c>
       <c r="I252" t="n">
-        <v>-26.15</v>
+        <v>-0.2615384615384615</v>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11560,11 +11560,11 @@
         </is>
       </c>
       <c r="I253" t="n">
-        <v>-28.06</v>
+        <v>-0.2806224899598394</v>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11604,11 +11604,11 @@
         </is>
       </c>
       <c r="I254" t="n">
-        <v>-16.98</v>
+        <v>-0.1697566628041716</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11648,7 +11648,7 @@
         </is>
       </c>
       <c r="I255" t="n">
-        <v>7.84</v>
+        <v>0.07843137254901968</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
@@ -11692,11 +11692,11 @@
         </is>
       </c>
       <c r="I256" t="n">
-        <v>-12.45</v>
+        <v>-0.1244635193133047</v>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11736,11 +11736,11 @@
         </is>
       </c>
       <c r="I257" t="n">
-        <v>-12.62</v>
+        <v>-0.1262254901960785</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11780,7 +11780,7 @@
         </is>
       </c>
       <c r="I258" t="n">
-        <v>0.28</v>
+        <v>0.002818886539816838</v>
       </c>
       <c r="J258" t="inlineStr">
         <is>
@@ -11824,11 +11824,11 @@
         </is>
       </c>
       <c r="I259" t="n">
-        <v>-22.05</v>
+        <v>-0.2205156335710367</v>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11868,7 +11868,7 @@
         </is>
       </c>
       <c r="I260" t="n">
-        <v>1.57</v>
+        <v>0.01572551822730526</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
@@ -11912,11 +11912,11 @@
         </is>
       </c>
       <c r="I261" t="n">
-        <v>-32.28</v>
+        <v>-0.3228120516499283</v>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -11956,7 +11956,7 @@
         </is>
       </c>
       <c r="I262" t="n">
-        <v>-6.16</v>
+        <v>-0.06163021868787275</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         </is>
       </c>
       <c r="I263" t="n">
-        <v>-9.07</v>
+        <v>-0.09073359073359064</v>
       </c>
       <c r="J263" t="inlineStr">
         <is>
@@ -12044,11 +12044,11 @@
         </is>
       </c>
       <c r="I264" t="n">
-        <v>-16.26</v>
+        <v>-0.1626112759643918</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12088,11 +12088,11 @@
         </is>
       </c>
       <c r="I265" t="n">
-        <v>-11.22</v>
+        <v>-0.1121613106490233</v>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12132,11 +12132,11 @@
         </is>
       </c>
       <c r="I266" t="n">
-        <v>-27.64</v>
+        <v>-0.276376737004632</v>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12176,11 +12176,11 @@
         </is>
       </c>
       <c r="I267" t="n">
-        <v>-24.93</v>
+        <v>-0.2493326214628938</v>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12220,11 +12220,11 @@
         </is>
       </c>
       <c r="I268" t="n">
-        <v>-34.33</v>
+        <v>-0.343311506080449</v>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12264,7 +12264,7 @@
         </is>
       </c>
       <c r="I269" t="n">
-        <v>8.890000000000001</v>
+        <v>0.08892355694227773</v>
       </c>
       <c r="J269" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         </is>
       </c>
       <c r="I270" t="n">
-        <v>-3.79</v>
+        <v>-0.03790489317711915</v>
       </c>
       <c r="J270" t="inlineStr">
         <is>
@@ -12352,11 +12352,11 @@
         </is>
       </c>
       <c r="I271" t="n">
-        <v>-21.56</v>
+        <v>-0.2155858930602958</v>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12396,11 +12396,11 @@
         </is>
       </c>
       <c r="I272" t="n">
-        <v>-14.53</v>
+        <v>-0.1453416149068324</v>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12440,7 +12440,7 @@
         </is>
       </c>
       <c r="I273" t="n">
-        <v>-2.91</v>
+        <v>-0.02907801418439717</v>
       </c>
       <c r="J273" t="inlineStr">
         <is>
@@ -12484,11 +12484,11 @@
         </is>
       </c>
       <c r="I274" t="n">
-        <v>-21.99</v>
+        <v>-0.21994301994302</v>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12528,11 +12528,11 @@
         </is>
       </c>
       <c r="I275" t="n">
-        <v>-11.1</v>
+        <v>-0.1110389610389611</v>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12572,11 +12572,11 @@
         </is>
       </c>
       <c r="I276" t="n">
-        <v>12.17</v>
+        <v>0.1217105263157895</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -12616,11 +12616,11 @@
         </is>
       </c>
       <c r="I277" t="n">
-        <v>-15.65</v>
+        <v>-0.1564625850340137</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12660,11 +12660,11 @@
         </is>
       </c>
       <c r="I278" t="n">
-        <v>-10.46</v>
+        <v>-0.1046052631578947</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12704,11 +12704,11 @@
         </is>
       </c>
       <c r="I279" t="n">
-        <v>-10.73</v>
+        <v>-0.1073074391046741</v>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12748,11 +12748,11 @@
         </is>
       </c>
       <c r="I280" t="n">
-        <v>-13.41</v>
+        <v>-0.1340996168582375</v>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12792,11 +12792,11 @@
         </is>
       </c>
       <c r="I281" t="n">
-        <v>-23.78</v>
+        <v>-0.2377979568671964</v>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12836,11 +12836,11 @@
         </is>
       </c>
       <c r="I282" t="n">
-        <v>-23.17</v>
+        <v>-0.2316933638443936</v>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12880,11 +12880,11 @@
         </is>
       </c>
       <c r="I283" t="n">
-        <v>-16.51</v>
+        <v>-0.1651090342679128</v>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -12924,7 +12924,7 @@
         </is>
       </c>
       <c r="I284" t="n">
-        <v>-1.47</v>
+        <v>-0.01470588235294112</v>
       </c>
       <c r="J284" t="inlineStr">
         <is>
@@ -12968,11 +12968,11 @@
         </is>
       </c>
       <c r="I285" t="n">
-        <v>-13.38</v>
+        <v>-0.1338073691014868</v>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13012,7 +13012,7 @@
         </is>
       </c>
       <c r="I286" t="n">
-        <v>-1.9</v>
+        <v>-0.01903367496339676</v>
       </c>
       <c r="J286" t="inlineStr">
         <is>
@@ -13056,11 +13056,11 @@
         </is>
       </c>
       <c r="I287" t="n">
-        <v>-12.93</v>
+        <v>-0.1293047433398311</v>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13100,11 +13100,11 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>-17.81</v>
+        <v>-0.1781326781326781</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13144,11 +13144,11 @@
         </is>
       </c>
       <c r="I289" t="n">
-        <v>-28.07</v>
+        <v>-0.2807112068965517</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13188,11 +13188,11 @@
         </is>
       </c>
       <c r="I290" t="n">
-        <v>-31.67</v>
+        <v>-0.3166838311019568</v>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13232,11 +13232,11 @@
         </is>
       </c>
       <c r="I291" t="n">
-        <v>-21.64</v>
+        <v>-0.2163604030823948</v>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13276,11 +13276,11 @@
         </is>
       </c>
       <c r="I292" t="n">
-        <v>-18.83</v>
+        <v>-0.1883076923076923</v>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13320,7 +13320,7 @@
         </is>
       </c>
       <c r="I293" t="n">
-        <v>-9.43</v>
+        <v>-0.09428768066070195</v>
       </c>
       <c r="J293" t="inlineStr">
         <is>
@@ -13364,11 +13364,11 @@
         </is>
       </c>
       <c r="I294" t="n">
-        <v>-28.59</v>
+        <v>-0.2859468258274552</v>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13408,11 +13408,11 @@
         </is>
       </c>
       <c r="I295" t="n">
-        <v>-19.52</v>
+        <v>-0.1952117863720074</v>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13452,11 +13452,11 @@
         </is>
       </c>
       <c r="I296" t="n">
-        <v>-20.92</v>
+        <v>-0.2091898428053204</v>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13496,11 +13496,11 @@
         </is>
       </c>
       <c r="I297" t="n">
-        <v>-20.17</v>
+        <v>-0.2017114914425427</v>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13540,11 +13540,11 @@
         </is>
       </c>
       <c r="I298" t="n">
-        <v>-13.48</v>
+        <v>-0.1347565043362241</v>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13584,7 +13584,7 @@
         </is>
       </c>
       <c r="I299" t="n">
-        <v>-9.119999999999999</v>
+        <v>-0.09122807017543864</v>
       </c>
       <c r="J299" t="inlineStr">
         <is>
@@ -13628,11 +13628,11 @@
         </is>
       </c>
       <c r="I300" t="n">
-        <v>-17.73</v>
+        <v>-0.1772554002541297</v>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13672,11 +13672,11 @@
         </is>
       </c>
       <c r="I301" t="n">
-        <v>-10.2</v>
+        <v>-0.1019553072625699</v>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13716,11 +13716,11 @@
         </is>
       </c>
       <c r="I302" t="n">
-        <v>-34.12</v>
+        <v>-0.3412371134020619</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13760,11 +13760,11 @@
         </is>
       </c>
       <c r="I303" t="n">
-        <v>-16.42</v>
+        <v>-0.1641595814257685</v>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13804,7 +13804,7 @@
         </is>
       </c>
       <c r="I304" t="n">
-        <v>-8.48</v>
+        <v>-0.0848310567936736</v>
       </c>
       <c r="J304" t="inlineStr">
         <is>
@@ -13848,11 +13848,11 @@
         </is>
       </c>
       <c r="I305" t="n">
-        <v>-16.13</v>
+        <v>-0.1613119143239625</v>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13892,11 +13892,11 @@
         </is>
       </c>
       <c r="I306" t="n">
-        <v>-22.75</v>
+        <v>-0.2274969173859433</v>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13936,11 +13936,11 @@
         </is>
       </c>
       <c r="I307" t="n">
-        <v>-22.01</v>
+        <v>-0.2201375859912445</v>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -13980,11 +13980,11 @@
         </is>
       </c>
       <c r="I308" t="n">
-        <v>-10.31</v>
+        <v>-0.10310021629416</v>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14024,11 +14024,11 @@
         </is>
       </c>
       <c r="I309" t="n">
-        <v>-29.95</v>
+        <v>-0.2995495495495497</v>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14068,11 +14068,11 @@
         </is>
       </c>
       <c r="I310" t="n">
-        <v>-26.74</v>
+        <v>-0.2673733804475855</v>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14112,11 +14112,11 @@
         </is>
       </c>
       <c r="I311" t="n">
-        <v>-19.05</v>
+        <v>-0.1904761904761904</v>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14156,11 +14156,11 @@
         </is>
       </c>
       <c r="I312" t="n">
-        <v>-21.02</v>
+        <v>-0.2102199223803363</v>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14200,11 +14200,11 @@
         </is>
       </c>
       <c r="I313" t="n">
-        <v>-24.02</v>
+        <v>-0.240174672489083</v>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14244,11 +14244,11 @@
         </is>
       </c>
       <c r="I314" t="n">
-        <v>-15.33</v>
+        <v>-0.1533101045296167</v>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14288,11 +14288,11 @@
         </is>
       </c>
       <c r="I315" t="n">
-        <v>-12.36</v>
+        <v>-0.1236442516268981</v>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14332,11 +14332,11 @@
         </is>
       </c>
       <c r="I316" t="n">
-        <v>-25.65</v>
+        <v>-0.2565217391304348</v>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14376,11 +14376,11 @@
         </is>
       </c>
       <c r="I317" t="n">
-        <v>-29.44</v>
+        <v>-0.294431279620853</v>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14420,7 +14420,7 @@
         </is>
       </c>
       <c r="I318" t="n">
-        <v>-5.85</v>
+        <v>-0.05849802371541504</v>
       </c>
       <c r="J318" t="inlineStr">
         <is>
@@ -14464,11 +14464,11 @@
         </is>
       </c>
       <c r="I319" t="n">
-        <v>-19.77</v>
+        <v>-0.1976980365605958</v>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14508,11 +14508,11 @@
         </is>
       </c>
       <c r="I320" t="n">
-        <v>-38.06</v>
+        <v>-0.3805541035023523</v>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14552,11 +14552,11 @@
         </is>
       </c>
       <c r="I321" t="n">
-        <v>-29.53</v>
+        <v>-0.2952779438135087</v>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14596,11 +14596,11 @@
         </is>
       </c>
       <c r="I322" t="n">
-        <v>-32.05</v>
+        <v>-0.3204610951008647</v>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14640,11 +14640,11 @@
         </is>
       </c>
       <c r="I323" t="n">
-        <v>-26.08</v>
+        <v>-0.2608422375864237</v>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14684,11 +14684,11 @@
         </is>
       </c>
       <c r="I324" t="n">
-        <v>-22.32</v>
+        <v>-0.2232496697490093</v>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14728,11 +14728,11 @@
         </is>
       </c>
       <c r="I325" t="n">
-        <v>-30.99</v>
+        <v>-0.3098591549295774</v>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14772,11 +14772,11 @@
         </is>
       </c>
       <c r="I326" t="n">
-        <v>-17.03</v>
+        <v>-0.170333569907736</v>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14816,11 +14816,11 @@
         </is>
       </c>
       <c r="I327" t="n">
-        <v>-28.9</v>
+        <v>-0.2890243902439024</v>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14860,11 +14860,11 @@
         </is>
       </c>
       <c r="I328" t="n">
-        <v>-36.56</v>
+        <v>-0.3656147986942328</v>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14904,11 +14904,11 @@
         </is>
       </c>
       <c r="I329" t="n">
-        <v>-32.34</v>
+        <v>-0.3234438627108784</v>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14948,11 +14948,11 @@
         </is>
       </c>
       <c r="I330" t="n">
-        <v>-23.93</v>
+        <v>-0.239344262295082</v>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -14992,11 +14992,11 @@
         </is>
       </c>
       <c r="I331" t="n">
-        <v>-32.95</v>
+        <v>-0.3294797687861272</v>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15036,11 +15036,11 @@
         </is>
       </c>
       <c r="I332" t="n">
-        <v>-25.55</v>
+        <v>-0.2554697554697554</v>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15080,11 +15080,11 @@
         </is>
       </c>
       <c r="I333" t="n">
-        <v>-12.58</v>
+        <v>-0.1257575757575758</v>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15124,11 +15124,11 @@
         </is>
       </c>
       <c r="I334" t="n">
-        <v>-22.49</v>
+        <v>-0.2249158249158249</v>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15168,11 +15168,11 @@
         </is>
       </c>
       <c r="I335" t="n">
-        <v>-22.44</v>
+        <v>-0.2243935309973046</v>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15212,11 +15212,11 @@
         </is>
       </c>
       <c r="I336" t="n">
-        <v>-26.36</v>
+        <v>-0.2635956493921945</v>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15256,11 +15256,11 @@
         </is>
       </c>
       <c r="I337" t="n">
-        <v>-32.11</v>
+        <v>-0.3210682492581603</v>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15300,11 +15300,11 @@
         </is>
       </c>
       <c r="I338" t="n">
-        <v>-19.65</v>
+        <v>-0.1964788732394366</v>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15344,11 +15344,11 @@
         </is>
       </c>
       <c r="I339" t="n">
-        <v>-21.89</v>
+        <v>-0.2188575361321404</v>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15388,11 +15388,11 @@
         </is>
       </c>
       <c r="I340" t="n">
-        <v>-19.93</v>
+        <v>-0.1992882562277581</v>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15432,11 +15432,11 @@
         </is>
       </c>
       <c r="I341" t="n">
-        <v>-14.72</v>
+        <v>-0.1472158657513349</v>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15476,11 +15476,11 @@
         </is>
       </c>
       <c r="I342" t="n">
-        <v>-29.65</v>
+        <v>-0.2965299684542587</v>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15520,11 +15520,11 @@
         </is>
       </c>
       <c r="I343" t="n">
-        <v>-26.16</v>
+        <v>-0.2615894039735099</v>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15564,11 +15564,11 @@
         </is>
       </c>
       <c r="I344" t="n">
-        <v>-31.16</v>
+        <v>-0.3116076970825574</v>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15608,11 +15608,11 @@
         </is>
       </c>
       <c r="I345" t="n">
-        <v>-19.75</v>
+        <v>-0.1975397973950796</v>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="I346" t="n">
-        <v>5.54</v>
+        <v>0.055396370582617</v>
       </c>
       <c r="J346" t="inlineStr">
         <is>
@@ -15696,11 +15696,11 @@
         </is>
       </c>
       <c r="I347" t="n">
-        <v>-24.37</v>
+        <v>-0.2436513383665066</v>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15740,11 +15740,11 @@
         </is>
       </c>
       <c r="I348" t="n">
-        <v>-34.33</v>
+        <v>-0.3432657926102504</v>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15784,11 +15784,11 @@
         </is>
       </c>
       <c r="I349" t="n">
-        <v>-22</v>
+        <v>-0.220014194464159</v>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15828,11 +15828,11 @@
         </is>
       </c>
       <c r="I350" t="n">
-        <v>12.26</v>
+        <v>0.1225740551583249</v>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Overperforming</t>
+          <t>Slightly Overperforming</t>
         </is>
       </c>
     </row>
@@ -15872,11 +15872,11 @@
         </is>
       </c>
       <c r="I351" t="n">
-        <v>-35.51</v>
+        <v>-0.3551236749116609</v>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15916,11 +15916,11 @@
         </is>
       </c>
       <c r="I352" t="n">
-        <v>-24.85</v>
+        <v>-0.2484557309540152</v>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -15960,11 +15960,11 @@
         </is>
       </c>
       <c r="I353" t="n">
-        <v>-21.04</v>
+        <v>-0.210412147505423</v>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16004,11 +16004,11 @@
         </is>
       </c>
       <c r="I354" t="n">
-        <v>-27.74</v>
+        <v>-0.2773722627737226</v>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16048,11 +16048,11 @@
         </is>
       </c>
       <c r="I355" t="n">
-        <v>-30.76</v>
+        <v>-0.3075941289087428</v>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16092,11 +16092,11 @@
         </is>
       </c>
       <c r="I356" t="n">
-        <v>-15.34</v>
+        <v>-0.1533646322378716</v>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16136,7 +16136,7 @@
         </is>
       </c>
       <c r="I357" t="n">
-        <v>-6.88</v>
+        <v>-0.06884681583476755</v>
       </c>
       <c r="J357" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         </is>
       </c>
       <c r="I358" t="n">
-        <v>-5.83</v>
+        <v>-0.05831157528285465</v>
       </c>
       <c r="J358" t="inlineStr">
         <is>
@@ -16224,11 +16224,11 @@
         </is>
       </c>
       <c r="I359" t="n">
-        <v>-17.01</v>
+        <v>-0.1701308698999231</v>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16268,11 +16268,11 @@
         </is>
       </c>
       <c r="I360" t="n">
-        <v>-24.2</v>
+        <v>-0.2420156139105749</v>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16312,11 +16312,11 @@
         </is>
       </c>
       <c r="I361" t="n">
-        <v>-39.66</v>
+        <v>-0.3966101694915254</v>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16356,11 +16356,11 @@
         </is>
       </c>
       <c r="I362" t="n">
-        <v>-40.79</v>
+        <v>-0.4079462786793509</v>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16400,11 +16400,11 @@
         </is>
       </c>
       <c r="I363" t="n">
-        <v>-37.36</v>
+        <v>-0.3735938425103612</v>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16444,11 +16444,11 @@
         </is>
       </c>
       <c r="I364" t="n">
-        <v>-13.36</v>
+        <v>-0.1335531739488871</v>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16488,11 +16488,11 @@
         </is>
       </c>
       <c r="I365" t="n">
-        <v>-33.94</v>
+        <v>-0.3394321766561514</v>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16532,11 +16532,11 @@
         </is>
       </c>
       <c r="I366" t="n">
-        <v>-29.3</v>
+        <v>-0.2929979605710401</v>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16576,11 +16576,11 @@
         </is>
       </c>
       <c r="I367" t="n">
-        <v>-33.33</v>
+        <v>-0.3333333333333334</v>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16620,11 +16620,11 @@
         </is>
       </c>
       <c r="I368" t="n">
-        <v>-40.27</v>
+        <v>-0.402696365767878</v>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16664,11 +16664,11 @@
         </is>
       </c>
       <c r="I369" t="n">
-        <v>-15.98</v>
+        <v>-0.1597682119205298</v>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16708,11 +16708,11 @@
         </is>
       </c>
       <c r="I370" t="n">
-        <v>-25.8</v>
+        <v>-0.2580409356725146</v>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16752,11 +16752,11 @@
         </is>
       </c>
       <c r="I371" t="n">
-        <v>-45.97</v>
+        <v>-0.4596903363587828</v>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16796,11 +16796,11 @@
         </is>
       </c>
       <c r="I372" t="n">
-        <v>-40.73</v>
+        <v>-0.4073199527744983</v>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16840,11 +16840,11 @@
         </is>
       </c>
       <c r="I373" t="n">
-        <v>-23.12</v>
+        <v>-0.2311827956989247</v>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16884,11 +16884,11 @@
         </is>
       </c>
       <c r="I374" t="n">
-        <v>-27.39</v>
+        <v>-0.2738528769118718</v>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16928,11 +16928,11 @@
         </is>
       </c>
       <c r="I375" t="n">
-        <v>-35.51</v>
+        <v>-0.3551099611901682</v>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -16972,11 +16972,11 @@
         </is>
       </c>
       <c r="I376" t="n">
-        <v>-36.94</v>
+        <v>-0.3693864642631246</v>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17016,11 +17016,11 @@
         </is>
       </c>
       <c r="I377" t="n">
-        <v>-43.14</v>
+        <v>-0.4313612866168868</v>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17060,11 +17060,11 @@
         </is>
       </c>
       <c r="I378" t="n">
-        <v>-23.7</v>
+        <v>-0.2369852369852369</v>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17104,11 +17104,11 @@
         </is>
       </c>
       <c r="I379" t="n">
-        <v>-21.57</v>
+        <v>-0.2156549520766773</v>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17148,11 +17148,11 @@
         </is>
       </c>
       <c r="I380" t="n">
-        <v>-34.17</v>
+        <v>-0.3416610398379474</v>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17192,11 +17192,11 @@
         </is>
       </c>
       <c r="I381" t="n">
-        <v>-35.66</v>
+        <v>-0.3566200931470392</v>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17236,11 +17236,11 @@
         </is>
       </c>
       <c r="I382" t="n">
-        <v>-43.97</v>
+        <v>-0.4396703943496174</v>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17280,11 +17280,11 @@
         </is>
       </c>
       <c r="I383" t="n">
-        <v>-47.06</v>
+        <v>-0.4705552439708356</v>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17324,11 +17324,11 @@
         </is>
       </c>
       <c r="I384" t="n">
-        <v>-39.7</v>
+        <v>-0.3970493906350224</v>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17368,11 +17368,11 @@
         </is>
       </c>
       <c r="I385" t="n">
-        <v>-49.33</v>
+        <v>-0.4932614555256065</v>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17412,11 +17412,11 @@
         </is>
       </c>
       <c r="I386" t="n">
-        <v>-48.32</v>
+        <v>-0.4832214765100671</v>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17456,11 +17456,11 @@
         </is>
       </c>
       <c r="I387" t="n">
-        <v>-34.41</v>
+        <v>-0.3441176470588235</v>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17500,11 +17500,11 @@
         </is>
       </c>
       <c r="I388" t="n">
-        <v>-41.43</v>
+        <v>-0.4142568930733019</v>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17544,11 +17544,11 @@
         </is>
       </c>
       <c r="I389" t="n">
-        <v>-34.95</v>
+        <v>-0.3495145631067961</v>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17588,11 +17588,11 @@
         </is>
       </c>
       <c r="I390" t="n">
-        <v>-31.41</v>
+        <v>-0.3140822784810127</v>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17632,11 +17632,11 @@
         </is>
       </c>
       <c r="I391" t="n">
-        <v>-50.74</v>
+        <v>-0.5074200913242009</v>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17676,11 +17676,11 @@
         </is>
       </c>
       <c r="I392" t="n">
-        <v>-29.61</v>
+        <v>-0.296084828711256</v>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17720,11 +17720,11 @@
         </is>
       </c>
       <c r="I393" t="n">
-        <v>-43.52</v>
+        <v>-0.4352469959946595</v>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17764,11 +17764,11 @@
         </is>
       </c>
       <c r="I394" t="n">
-        <v>-31.22</v>
+        <v>-0.3121951219512195</v>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17808,11 +17808,11 @@
         </is>
       </c>
       <c r="I395" t="n">
-        <v>-38.2</v>
+        <v>-0.3820474777448071</v>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17852,11 +17852,11 @@
         </is>
       </c>
       <c r="I396" t="n">
-        <v>-40.79</v>
+        <v>-0.4078571428571429</v>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17896,11 +17896,11 @@
         </is>
       </c>
       <c r="I397" t="n">
-        <v>-47.06</v>
+        <v>-0.4706257982120052</v>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -17940,7 +17940,7 @@
         </is>
       </c>
       <c r="I398" t="n">
-        <v>3.35</v>
+        <v>0.03350515463917523</v>
       </c>
       <c r="J398" t="inlineStr">
         <is>
@@ -17984,11 +17984,11 @@
         </is>
       </c>
       <c r="I399" t="n">
-        <v>-45.05</v>
+        <v>-0.4504504504504505</v>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18028,11 +18028,11 @@
         </is>
       </c>
       <c r="I400" t="n">
-        <v>-51.6</v>
+        <v>-0.515970515970516</v>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18072,11 +18072,11 @@
         </is>
       </c>
       <c r="I401" t="n">
-        <v>-46.12</v>
+        <v>-0.4611683848797251</v>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18116,11 +18116,11 @@
         </is>
       </c>
       <c r="I402" t="n">
-        <v>-42.48</v>
+        <v>-0.4247982391782832</v>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18160,11 +18160,11 @@
         </is>
       </c>
       <c r="I403" t="n">
-        <v>-40.28</v>
+        <v>-0.4028103044496487</v>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18204,11 +18204,11 @@
         </is>
       </c>
       <c r="I404" t="n">
-        <v>-49.46</v>
+        <v>-0.4946164199192463</v>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18248,11 +18248,11 @@
         </is>
       </c>
       <c r="I405" t="n">
-        <v>-35.66</v>
+        <v>-0.3565891472868217</v>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18292,11 +18292,11 @@
         </is>
       </c>
       <c r="I406" t="n">
-        <v>-49.14</v>
+        <v>-0.4914324880054832</v>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18336,11 +18336,11 @@
         </is>
       </c>
       <c r="I407" t="n">
-        <v>-49.97</v>
+        <v>-0.4996582365003417</v>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18380,11 +18380,11 @@
         </is>
       </c>
       <c r="I408" t="n">
-        <v>-51.96</v>
+        <v>-0.5196013289036545</v>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18424,11 +18424,11 @@
         </is>
       </c>
       <c r="I409" t="n">
-        <v>-42.3</v>
+        <v>-0.4229848363926575</v>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18468,11 +18468,11 @@
         </is>
       </c>
       <c r="I410" t="n">
-        <v>-46.89</v>
+        <v>-0.4689349112426036</v>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18512,11 +18512,11 @@
         </is>
       </c>
       <c r="I411" t="n">
-        <v>-48.36</v>
+        <v>-0.4836065573770492</v>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18556,11 +18556,11 @@
         </is>
       </c>
       <c r="I412" t="n">
-        <v>-49.67</v>
+        <v>-0.4967320261437909</v>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18600,11 +18600,11 @@
         </is>
       </c>
       <c r="I413" t="n">
-        <v>-45.74</v>
+        <v>-0.4574468085106383</v>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18644,11 +18644,11 @@
         </is>
       </c>
       <c r="I414" t="n">
-        <v>-59.83</v>
+        <v>-0.5982905982905983</v>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18688,11 +18688,11 @@
         </is>
       </c>
       <c r="I415" t="n">
-        <v>-42.3</v>
+        <v>-0.4230088495575222</v>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18732,11 +18732,11 @@
         </is>
       </c>
       <c r="I416" t="n">
-        <v>-53.19</v>
+        <v>-0.5318991097922849</v>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18776,11 +18776,11 @@
         </is>
       </c>
       <c r="I417" t="n">
-        <v>-44.01</v>
+        <v>-0.4400715563506261</v>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18820,11 +18820,11 @@
         </is>
       </c>
       <c r="I418" t="n">
-        <v>-57.25</v>
+        <v>-0.5725297827610372</v>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18864,11 +18864,11 @@
         </is>
       </c>
       <c r="I419" t="n">
-        <v>-56.45</v>
+        <v>-0.5645277577505408</v>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18908,11 +18908,11 @@
         </is>
       </c>
       <c r="I420" t="n">
-        <v>-55.46</v>
+        <v>-0.5546468401486988</v>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18952,11 +18952,11 @@
         </is>
       </c>
       <c r="I421" t="n">
-        <v>-51.46</v>
+        <v>-0.5145954962468724</v>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -18996,11 +18996,11 @@
         </is>
       </c>
       <c r="I422" t="n">
-        <v>-53.62</v>
+        <v>-0.5361736334405145</v>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19040,11 +19040,11 @@
         </is>
       </c>
       <c r="I423" t="n">
-        <v>-60.78</v>
+        <v>-0.6078286558345644</v>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19084,11 +19084,11 @@
         </is>
       </c>
       <c r="I424" t="n">
-        <v>-60.73</v>
+        <v>-0.6073298429319371</v>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19128,11 +19128,11 @@
         </is>
       </c>
       <c r="I425" t="n">
-        <v>-58.81</v>
+        <v>-0.588095238095238</v>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19172,11 +19172,11 @@
         </is>
       </c>
       <c r="I426" t="n">
-        <v>-51.18</v>
+        <v>-0.5117591721542804</v>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19216,11 +19216,11 @@
         </is>
       </c>
       <c r="I427" t="n">
-        <v>-65.84999999999999</v>
+        <v>-0.6584553928095873</v>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19260,11 +19260,11 @@
         </is>
       </c>
       <c r="I428" t="n">
-        <v>-67.97</v>
+        <v>-0.6797477224947442</v>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19304,11 +19304,11 @@
         </is>
       </c>
       <c r="I429" t="n">
-        <v>-65.8</v>
+        <v>-0.6579554189085318</v>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19348,11 +19348,11 @@
         </is>
       </c>
       <c r="I430" t="n">
-        <v>-72.31</v>
+        <v>-0.7230769230769231</v>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19392,11 +19392,11 @@
         </is>
       </c>
       <c r="I431" t="n">
-        <v>-68.09</v>
+        <v>-0.6809453471196455</v>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19436,11 +19436,11 @@
         </is>
       </c>
       <c r="I432" t="n">
-        <v>-62.99</v>
+        <v>-0.6298586572438162</v>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19480,11 +19480,11 @@
         </is>
       </c>
       <c r="I433" t="n">
-        <v>-78.59999999999999</v>
+        <v>-0.7860054347826086</v>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19524,11 +19524,11 @@
         </is>
       </c>
       <c r="I434" t="n">
-        <v>-86.12</v>
+        <v>-0.8612440191387559</v>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19568,11 +19568,11 @@
         </is>
       </c>
       <c r="I435" t="n">
-        <v>-84.66</v>
+        <v>-0.8465608465608465</v>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19612,11 +19612,11 @@
         </is>
       </c>
       <c r="I436" t="n">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19656,11 +19656,11 @@
         </is>
       </c>
       <c r="I437" t="n">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19700,11 +19700,11 @@
         </is>
       </c>
       <c r="I438" t="n">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19744,11 +19744,11 @@
         </is>
       </c>
       <c r="I439" t="n">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19788,11 +19788,11 @@
         </is>
       </c>
       <c r="I440" t="n">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19832,11 +19832,11 @@
         </is>
       </c>
       <c r="I441" t="n">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19876,11 +19876,11 @@
         </is>
       </c>
       <c r="I442" t="n">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19920,11 +19920,11 @@
         </is>
       </c>
       <c r="I443" t="n">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>
@@ -19964,11 +19964,11 @@
         </is>
       </c>
       <c r="I444" t="n">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Heavily Underperforming</t>
+          <t>Slightly Underperforming</t>
         </is>
       </c>
     </row>

--- a/Player Clutch Statistics 1.xlsx
+++ b/Player Clutch Statistics 1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J444"/>
+  <dimension ref="A1:K444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>Reliability</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -523,6 +528,9 @@
           <t>Slightly Overperforming</t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -567,6 +575,9 @@
           <t>Slightly Overperforming</t>
         </is>
       </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -611,6 +622,9 @@
           <t>Slightly Overperforming</t>
         </is>
       </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -655,6 +669,9 @@
           <t>Slightly Overperforming</t>
         </is>
       </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -688,7 +705,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Elite</t>
+          <t>Franchise</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -698,6 +715,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +752,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Elite</t>
+          <t>Franchise</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -742,6 +762,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -776,7 +799,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Elite</t>
+          <t>Franchise</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -786,6 +809,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -820,7 +846,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Elite</t>
+          <t>Franchise</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -830,6 +856,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +893,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Elite</t>
+          <t>Franchise</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -874,6 +903,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -908,7 +940,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Elite</t>
+          <t>Franchise</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -918,6 +950,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -952,7 +987,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Elite</t>
+          <t>Franchise</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -962,6 +997,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K12" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -996,7 +1034,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Elite</t>
+          <t>Franchise</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1006,6 +1044,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K13" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1051,6 +1092,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K14" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1095,6 +1139,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K15" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1139,6 +1186,9 @@
           <t>Slightly Overperforming</t>
         </is>
       </c>
+      <c r="K16" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1183,6 +1233,9 @@
           <t>Slightly Overperforming</t>
         </is>
       </c>
+      <c r="K17" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1227,6 +1280,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1271,6 +1327,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1315,6 +1374,9 @@
           <t>Slightly Overperforming</t>
         </is>
       </c>
+      <c r="K20" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1359,6 +1421,9 @@
           <t>Slightly Overperforming</t>
         </is>
       </c>
+      <c r="K21" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1403,6 +1468,9 @@
           <t>Slightly Overperforming</t>
         </is>
       </c>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1436,7 +1504,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1446,6 +1514,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K23" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1480,7 +1551,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1490,6 +1561,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1524,7 +1598,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1534,6 +1608,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K25" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1568,7 +1645,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1578,6 +1655,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K26" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -1612,7 +1692,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1622,6 +1702,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K27" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
@@ -1656,7 +1739,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1666,6 +1749,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K28" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -1700,7 +1786,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -1710,6 +1796,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K29" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -1744,7 +1833,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -1754,6 +1843,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K30" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -1788,7 +1880,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -1798,6 +1890,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K31" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -1832,7 +1927,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -1842,6 +1937,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K32" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -1876,7 +1974,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -1886,6 +1984,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K33" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -1920,7 +2021,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -1930,6 +2031,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K34" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -1964,7 +2068,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -1974,6 +2078,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K35" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -2008,7 +2115,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2018,6 +2125,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K36" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -2052,7 +2162,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2062,6 +2172,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K37" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="38">
@@ -2096,7 +2209,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2106,6 +2219,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K38" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="39">
@@ -2140,7 +2256,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2150,6 +2266,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K39" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="40">
@@ -2184,7 +2303,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2194,6 +2313,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K40" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="41">
@@ -2228,7 +2350,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2238,6 +2360,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K41" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="42">
@@ -2272,7 +2397,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -2282,6 +2407,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K42" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="43">
@@ -2316,7 +2444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -2326,6 +2454,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K43" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="44">
@@ -2360,7 +2491,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2370,6 +2501,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K44" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
@@ -2404,7 +2538,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -2414,6 +2548,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K45" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="46">
@@ -2448,7 +2585,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -2458,6 +2595,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K46" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="47">
@@ -2492,7 +2632,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -2502,6 +2642,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K47" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="48">
@@ -2536,7 +2679,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -2546,6 +2689,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K48" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="49">
@@ -2580,7 +2726,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -2590,6 +2736,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K49" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="50">
@@ -2624,7 +2773,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -2634,6 +2783,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K50" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="51">
@@ -2668,7 +2820,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -2678,6 +2830,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K51" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="52">
@@ -2712,7 +2867,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -2722,6 +2877,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K52" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="53">
@@ -2756,7 +2914,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -2766,6 +2924,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K53" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54">
@@ -2800,7 +2961,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -2810,6 +2971,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K54" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="55">
@@ -2844,7 +3008,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -2854,6 +3018,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K55" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="56">
@@ -2888,7 +3055,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -2898,6 +3065,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K56" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="57">
@@ -2932,7 +3102,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -2942,6 +3112,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K57" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="58">
@@ -2976,7 +3149,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -2986,6 +3159,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K58" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="59">
@@ -3020,7 +3196,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -3030,6 +3206,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K59" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="60">
@@ -3064,7 +3243,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -3074,6 +3253,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K60" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="61">
@@ -3108,7 +3290,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -3118,6 +3300,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K61" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="62">
@@ -3152,7 +3337,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -3162,6 +3347,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K62" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63">
@@ -3196,7 +3384,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -3206,6 +3394,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K63" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="64">
@@ -3240,7 +3431,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -3250,6 +3441,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K64" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="65">
@@ -3284,7 +3478,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -3294,6 +3488,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K65" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="66">
@@ -3328,7 +3525,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -3338,6 +3535,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K66" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="67">
@@ -3372,7 +3572,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -3382,6 +3582,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K67" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="68">
@@ -3416,7 +3619,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -3426,6 +3629,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K68" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="69">
@@ -3460,7 +3666,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -3470,6 +3676,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K69" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="70">
@@ -3504,7 +3713,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -3514,6 +3723,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K70" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="71">
@@ -3548,7 +3760,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -3558,6 +3770,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K71" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="72">
@@ -3592,7 +3807,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -3602,6 +3817,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K72" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="73">
@@ -3636,7 +3854,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -3646,6 +3864,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K73" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="74">
@@ -3680,7 +3901,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Above Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -3690,6 +3911,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K74" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="75">
@@ -3724,7 +3948,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -3734,6 +3958,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K75" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="76">
@@ -3768,7 +3995,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -3778,6 +4005,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K76" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="77">
@@ -3812,7 +4042,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -3822,6 +4052,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K77" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="78">
@@ -3856,7 +4089,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -3866,6 +4099,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K78" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="79">
@@ -3900,7 +4136,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -3910,6 +4146,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K79" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="80">
@@ -3944,7 +4183,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -3954,6 +4193,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K80" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="81">
@@ -3988,7 +4230,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -3998,6 +4240,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K81" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="82">
@@ -4032,7 +4277,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -4042,6 +4287,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K82" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="83">
@@ -4076,7 +4324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -4086,6 +4334,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K83" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="84">
@@ -4120,7 +4371,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -4130,6 +4381,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K84" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="85">
@@ -4164,7 +4418,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -4174,6 +4428,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K85" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="86">
@@ -4208,7 +4465,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -4218,6 +4475,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K86" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="87">
@@ -4252,7 +4512,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -4262,6 +4522,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K87" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="88">
@@ -4296,7 +4559,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -4306,6 +4569,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K88" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="89">
@@ -4340,7 +4606,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -4350,6 +4616,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K89" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="90">
@@ -4384,7 +4653,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -4394,6 +4663,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K90" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="91">
@@ -4428,7 +4700,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -4438,6 +4710,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K91" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="92">
@@ -4472,7 +4747,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -4482,6 +4757,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K92" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="93">
@@ -4516,7 +4794,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -4526,6 +4804,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K93" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="94">
@@ -4560,7 +4841,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -4570,6 +4851,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K94" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="95">
@@ -4604,7 +4888,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -4614,6 +4898,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K95" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="96">
@@ -4648,7 +4935,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -4658,6 +4945,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K96" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="97">
@@ -4692,7 +4982,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I97" t="n">
@@ -4702,6 +4992,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K97" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="98">
@@ -4736,7 +5029,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -4746,6 +5039,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K98" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="99">
@@ -4780,7 +5076,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -4790,6 +5086,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K99" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="100">
@@ -4824,7 +5123,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -4834,6 +5133,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K100" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="101">
@@ -4868,7 +5170,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I101" t="n">
@@ -4878,6 +5180,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K101" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="102">
@@ -4912,7 +5217,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -4922,6 +5227,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K102" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="103">
@@ -4956,7 +5264,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -4966,6 +5274,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K103" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="104">
@@ -5000,7 +5311,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -5010,6 +5321,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K104" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="105">
@@ -5044,7 +5358,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I105" t="n">
@@ -5054,6 +5368,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K105" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="106">
@@ -5088,7 +5405,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I106" t="n">
@@ -5098,6 +5415,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K106" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="107">
@@ -5132,7 +5452,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -5142,6 +5462,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K107" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="108">
@@ -5176,7 +5499,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I108" t="n">
@@ -5186,6 +5509,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K108" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="109">
@@ -5220,7 +5546,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -5230,6 +5556,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K109" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="110">
@@ -5264,7 +5593,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -5274,6 +5603,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K110" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="111">
@@ -5308,7 +5640,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -5318,6 +5650,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K111" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="112">
@@ -5352,7 +5687,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -5362,6 +5697,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K112" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="113">
@@ -5396,7 +5734,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -5406,6 +5744,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K113" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="114">
@@ -5440,7 +5781,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -5450,6 +5791,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K114" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="115">
@@ -5484,7 +5828,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -5494,6 +5838,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K115" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="116">
@@ -5528,7 +5875,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -5538,6 +5885,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K116" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="117">
@@ -5572,7 +5922,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -5582,6 +5932,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K117" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="118">
@@ -5616,7 +5969,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -5626,6 +5979,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K118" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="119">
@@ -5660,7 +6016,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -5670,6 +6026,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K119" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="120">
@@ -5704,7 +6063,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -5714,6 +6073,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K120" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="121">
@@ -5748,7 +6110,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I121" t="n">
@@ -5758,6 +6120,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K121" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="122">
@@ -5792,7 +6157,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -5802,6 +6167,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K122" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="123">
@@ -5836,7 +6204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I123" t="n">
@@ -5846,6 +6214,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K123" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="124">
@@ -5880,7 +6251,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I124" t="n">
@@ -5890,6 +6261,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K124" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="125">
@@ -5924,7 +6298,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -5934,6 +6308,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K125" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="126">
@@ -5968,7 +6345,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I126" t="n">
@@ -5978,6 +6355,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K126" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="127">
@@ -6012,7 +6392,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I127" t="n">
@@ -6022,6 +6402,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K127" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="128">
@@ -6056,7 +6439,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I128" t="n">
@@ -6066,6 +6449,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K128" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="129">
@@ -6100,7 +6486,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -6110,6 +6496,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K129" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="130">
@@ -6144,7 +6533,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I130" t="n">
@@ -6154,6 +6543,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K130" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="131">
@@ -6188,7 +6580,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -6198,6 +6590,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K131" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="132">
@@ -6232,7 +6627,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I132" t="n">
@@ -6242,6 +6637,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K132" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="133">
@@ -6276,7 +6674,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -6286,6 +6684,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K133" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="134">
@@ -6320,7 +6721,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I134" t="n">
@@ -6330,6 +6731,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K134" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="135">
@@ -6364,7 +6768,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I135" t="n">
@@ -6374,6 +6778,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K135" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="136">
@@ -6408,7 +6815,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I136" t="n">
@@ -6418,6 +6825,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K136" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="137">
@@ -6452,7 +6862,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -6462,6 +6872,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K137" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="138">
@@ -6496,7 +6909,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I138" t="n">
@@ -6506,6 +6919,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K138" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="139">
@@ -6540,7 +6956,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -6550,6 +6966,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K139" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="140">
@@ -6584,7 +7003,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -6594,6 +7013,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K140" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="141">
@@ -6628,7 +7050,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -6638,6 +7060,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K141" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="142">
@@ -6672,7 +7097,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -6682,6 +7107,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K142" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="143">
@@ -6716,7 +7144,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -6726,6 +7154,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K143" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="144">
@@ -6760,7 +7191,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -6770,6 +7201,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K144" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="145">
@@ -6804,7 +7238,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I145" t="n">
@@ -6814,6 +7248,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K145" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="146">
@@ -6848,7 +7285,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -6858,6 +7295,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K146" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="147">
@@ -6892,7 +7332,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I147" t="n">
@@ -6902,6 +7342,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K147" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="148">
@@ -6936,7 +7379,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I148" t="n">
@@ -6946,6 +7389,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K148" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="149">
@@ -6980,7 +7426,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I149" t="n">
@@ -6990,6 +7436,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K149" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="150">
@@ -7024,7 +7473,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I150" t="n">
@@ -7034,6 +7483,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K150" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="151">
@@ -7068,7 +7520,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I151" t="n">
@@ -7078,6 +7530,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K151" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="152">
@@ -7112,7 +7567,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I152" t="n">
@@ -7122,6 +7577,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K152" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="153">
@@ -7156,7 +7614,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I153" t="n">
@@ -7166,6 +7624,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K153" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="154">
@@ -7200,7 +7661,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I154" t="n">
@@ -7210,6 +7671,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K154" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="155">
@@ -7244,7 +7708,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I155" t="n">
@@ -7254,6 +7718,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K155" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="156">
@@ -7288,7 +7755,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I156" t="n">
@@ -7298,6 +7765,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K156" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="157">
@@ -7332,7 +7802,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I157" t="n">
@@ -7342,6 +7812,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K157" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="158">
@@ -7376,7 +7849,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I158" t="n">
@@ -7386,6 +7859,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K158" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="159">
@@ -7420,7 +7896,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I159" t="n">
@@ -7430,6 +7906,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K159" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="160">
@@ -7464,7 +7943,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I160" t="n">
@@ -7474,6 +7953,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K160" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="161">
@@ -7508,7 +7990,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I161" t="n">
@@ -7518,6 +8000,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K161" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="162">
@@ -7552,7 +8037,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I162" t="n">
@@ -7562,6 +8047,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K162" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="163">
@@ -7596,7 +8084,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I163" t="n">
@@ -7606,6 +8094,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K163" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="164">
@@ -7640,7 +8131,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I164" t="n">
@@ -7650,6 +8141,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K164" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="165">
@@ -7684,7 +8178,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I165" t="n">
@@ -7694,6 +8188,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K165" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="166">
@@ -7728,7 +8225,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I166" t="n">
@@ -7738,6 +8235,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K166" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="167">
@@ -7772,7 +8272,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I167" t="n">
@@ -7782,6 +8282,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K167" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="168">
@@ -7816,7 +8319,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I168" t="n">
@@ -7826,6 +8329,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K168" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="169">
@@ -7860,7 +8366,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I169" t="n">
@@ -7870,6 +8376,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K169" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="170">
@@ -7904,7 +8413,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I170" t="n">
@@ -7914,6 +8423,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K170" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="171">
@@ -7948,7 +8460,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I171" t="n">
@@ -7958,6 +8470,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K171" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="172">
@@ -7992,7 +8507,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I172" t="n">
@@ -8002,6 +8517,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K172" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="173">
@@ -8036,7 +8554,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I173" t="n">
@@ -8046,6 +8564,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K173" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="174">
@@ -8080,7 +8601,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I174" t="n">
@@ -8090,6 +8611,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K174" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="175">
@@ -8124,7 +8648,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I175" t="n">
@@ -8134,6 +8658,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K175" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="176">
@@ -8168,7 +8695,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I176" t="n">
@@ -8178,6 +8705,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K176" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="177">
@@ -8212,7 +8742,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I177" t="n">
@@ -8222,6 +8752,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K177" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="178">
@@ -8256,7 +8789,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I178" t="n">
@@ -8266,6 +8799,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K178" t="n">
+        <v>177</v>
       </c>
     </row>
     <row r="179">
@@ -8300,7 +8836,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I179" t="n">
@@ -8310,6 +8846,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K179" t="n">
+        <v>178</v>
       </c>
     </row>
     <row r="180">
@@ -8344,7 +8883,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I180" t="n">
@@ -8354,6 +8893,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K180" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="181">
@@ -8388,7 +8930,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I181" t="n">
@@ -8398,6 +8940,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K181" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="182">
@@ -8432,7 +8977,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I182" t="n">
@@ -8442,6 +8987,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K182" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="183">
@@ -8476,7 +9024,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I183" t="n">
@@ -8486,6 +9034,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K183" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="184">
@@ -8520,7 +9071,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I184" t="n">
@@ -8530,6 +9081,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K184" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="185">
@@ -8564,7 +9118,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I185" t="n">
@@ -8574,6 +9128,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K185" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="186">
@@ -8608,7 +9165,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I186" t="n">
@@ -8618,6 +9175,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K186" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="187">
@@ -8652,7 +9212,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I187" t="n">
@@ -8662,6 +9222,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K187" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="188">
@@ -8696,7 +9259,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I188" t="n">
@@ -8706,6 +9269,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K188" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="189">
@@ -8740,7 +9306,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I189" t="n">
@@ -8750,6 +9316,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K189" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="190">
@@ -8784,7 +9353,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I190" t="n">
@@ -8794,6 +9363,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K190" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="191">
@@ -8828,7 +9400,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I191" t="n">
@@ -8838,6 +9410,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K191" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="192">
@@ -8872,7 +9447,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I192" t="n">
@@ -8882,6 +9457,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K192" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="193">
@@ -8916,7 +9494,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I193" t="n">
@@ -8926,6 +9504,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K193" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="194">
@@ -8960,7 +9541,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I194" t="n">
@@ -8970,6 +9551,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K194" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="195">
@@ -9004,7 +9588,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I195" t="n">
@@ -9014,6 +9598,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K195" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="196">
@@ -9048,7 +9635,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I196" t="n">
@@ -9058,6 +9645,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K196" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="197">
@@ -9092,7 +9682,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I197" t="n">
@@ -9102,6 +9692,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K197" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="198">
@@ -9136,7 +9729,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I198" t="n">
@@ -9146,6 +9739,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K198" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="199">
@@ -9180,7 +9776,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I199" t="n">
@@ -9190,6 +9786,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K199" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="200">
@@ -9224,7 +9823,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I200" t="n">
@@ -9234,6 +9833,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K200" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="201">
@@ -9268,7 +9870,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I201" t="n">
@@ -9278,6 +9880,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K201" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="202">
@@ -9312,7 +9917,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I202" t="n">
@@ -9322,6 +9927,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K202" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="203">
@@ -9356,7 +9964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I203" t="n">
@@ -9366,6 +9974,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K203" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="204">
@@ -9400,7 +10011,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I204" t="n">
@@ -9410,6 +10021,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K204" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="205">
@@ -9444,7 +10058,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I205" t="n">
@@ -9454,6 +10068,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K205" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="206">
@@ -9488,7 +10105,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I206" t="n">
@@ -9498,6 +10115,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K206" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="207">
@@ -9532,7 +10152,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I207" t="n">
@@ -9542,6 +10162,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K207" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="208">
@@ -9576,7 +10199,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I208" t="n">
@@ -9586,6 +10209,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K208" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="209">
@@ -9620,7 +10246,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I209" t="n">
@@ -9630,6 +10256,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K209" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="210">
@@ -9664,7 +10293,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I210" t="n">
@@ -9674,6 +10303,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K210" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="211">
@@ -9708,7 +10340,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I211" t="n">
@@ -9718,6 +10350,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K211" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="212">
@@ -9752,7 +10387,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I212" t="n">
@@ -9762,6 +10397,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K212" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="213">
@@ -9796,7 +10434,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I213" t="n">
@@ -9806,6 +10444,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K213" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="214">
@@ -9840,7 +10481,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I214" t="n">
@@ -9850,6 +10491,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K214" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="215">
@@ -9884,7 +10528,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I215" t="n">
@@ -9894,6 +10538,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K215" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="216">
@@ -9928,7 +10575,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I216" t="n">
@@ -9938,6 +10585,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K216" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="217">
@@ -9972,7 +10622,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I217" t="n">
@@ -9982,6 +10632,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K217" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="218">
@@ -10016,7 +10669,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I218" t="n">
@@ -10026,6 +10679,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K218" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="219">
@@ -10060,7 +10716,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I219" t="n">
@@ -10070,6 +10726,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K219" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="220">
@@ -10104,7 +10763,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I220" t="n">
@@ -10114,6 +10773,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K220" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="221">
@@ -10148,7 +10810,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I221" t="n">
@@ -10158,6 +10820,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K221" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="222">
@@ -10192,7 +10857,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I222" t="n">
@@ -10202,6 +10867,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K222" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="223">
@@ -10236,7 +10904,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Above Average</t>
         </is>
       </c>
       <c r="I223" t="n">
@@ -10246,6 +10914,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K223" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="224">
@@ -10291,6 +10962,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K224" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -10335,6 +11009,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K225" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -10379,6 +11056,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K226" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -10423,6 +11103,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K227" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -10467,6 +11150,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K228" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -10511,6 +11197,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K229" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -10555,6 +11244,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K230" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -10599,6 +11291,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K231" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -10643,6 +11338,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K232" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -10687,6 +11385,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K233" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -10731,6 +11432,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K234" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -10775,6 +11479,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K235" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -10819,6 +11526,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K236" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -10863,6 +11573,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K237" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10907,6 +11620,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K238" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10951,6 +11667,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K239" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10995,6 +11714,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K240" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -11039,6 +11761,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K241" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -11083,6 +11808,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K242" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -11127,6 +11855,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K243" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -11171,6 +11902,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K244" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -11215,6 +11949,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K245" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -11259,6 +11996,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K246" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -11303,6 +12043,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K247" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -11347,6 +12090,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K248" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -11391,6 +12137,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K249" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -11435,6 +12184,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K250" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -11479,6 +12231,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K251" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -11523,6 +12278,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K252" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -11567,6 +12325,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K253" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -11611,6 +12372,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K254" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -11655,6 +12419,9 @@
           <t>Slightly Overperforming</t>
         </is>
       </c>
+      <c r="K255" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -11699,6 +12466,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K256" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -11743,6 +12513,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K257" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -11787,6 +12560,9 @@
           <t>Slightly Overperforming</t>
         </is>
       </c>
+      <c r="K258" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -11831,6 +12607,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K259" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -11875,6 +12654,9 @@
           <t>Slightly Overperforming</t>
         </is>
       </c>
+      <c r="K260" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -11919,6 +12701,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K261" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -11963,6 +12748,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K262" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -12007,6 +12795,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K263" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -12051,6 +12842,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K264" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -12095,6 +12889,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K265" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -12139,6 +12936,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K266" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -12183,6 +12983,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K267" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -12227,6 +13030,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K268" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -12271,6 +13077,9 @@
           <t>Slightly Overperforming</t>
         </is>
       </c>
+      <c r="K269" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -12315,6 +13124,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K270" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -12359,6 +13171,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K271" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -12403,6 +13218,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K272" t="n">
+        <v>271</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -12447,6 +13265,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K273" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -12491,6 +13312,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K274" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -12535,6 +13359,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K275" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -12579,6 +13406,9 @@
           <t>Slightly Overperforming</t>
         </is>
       </c>
+      <c r="K276" t="n">
+        <v>276</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -12623,6 +13453,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K277" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -12667,6 +13500,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K278" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -12711,6 +13547,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K279" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -12755,6 +13594,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K280" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -12799,6 +13641,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K281" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -12843,6 +13688,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K282" t="n">
+        <v>281</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -12887,6 +13735,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K283" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -12931,6 +13782,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K284" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -12975,6 +13829,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K285" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -13019,6 +13876,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K286" t="n">
+        <v>283</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -13063,6 +13923,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K287" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -13107,6 +13970,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K288" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -13151,6 +14017,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K289" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -13195,6 +14064,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K290" t="n">
+        <v>289</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -13239,6 +14111,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K291" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -13283,6 +14158,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K292" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -13327,6 +14205,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K293" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -13371,6 +14252,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K294" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -13415,6 +14299,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K295" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -13459,6 +14346,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K296" t="n">
+        <v>295</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -13503,6 +14393,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K297" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -13547,6 +14440,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K298" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -13591,6 +14487,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K299" t="n">
+        <v>298</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -13635,6 +14534,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K300" t="n">
+        <v>299</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -13679,6 +14581,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K301" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -13723,6 +14628,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K302" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -13767,6 +14675,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K303" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -13811,6 +14722,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K304" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -13855,6 +14769,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K305" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -13899,6 +14816,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K306" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -13943,6 +14863,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K307" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -13987,6 +14910,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K308" t="n">
+        <v>308</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -14031,6 +14957,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K309" t="n">
+        <v>307</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -14075,6 +15004,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K310" t="n">
+        <v>308</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -14119,6 +15051,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K311" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -14152,7 +15087,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I312" t="n">
@@ -14162,6 +15097,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K312" t="n">
+        <v>311</v>
       </c>
     </row>
     <row r="313">
@@ -14196,7 +15134,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I313" t="n">
@@ -14206,6 +15144,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K313" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="314">
@@ -14240,7 +15181,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I314" t="n">
@@ -14250,6 +15191,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K314" t="n">
+        <v>313</v>
       </c>
     </row>
     <row r="315">
@@ -14284,7 +15228,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I315" t="n">
@@ -14294,6 +15238,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K315" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="316">
@@ -14328,7 +15275,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I316" t="n">
@@ -14338,6 +15285,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K316" t="n">
+        <v>315</v>
       </c>
     </row>
     <row r="317">
@@ -14372,7 +15322,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I317" t="n">
@@ -14382,6 +15332,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K317" t="n">
+        <v>316</v>
       </c>
     </row>
     <row r="318">
@@ -14416,7 +15369,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I318" t="n">
@@ -14426,6 +15379,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K318" t="n">
+        <v>317</v>
       </c>
     </row>
     <row r="319">
@@ -14460,7 +15416,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I319" t="n">
@@ -14470,6 +15426,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K319" t="n">
+        <v>318</v>
       </c>
     </row>
     <row r="320">
@@ -14504,7 +15463,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I320" t="n">
@@ -14514,6 +15473,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K320" t="n">
+        <v>318</v>
       </c>
     </row>
     <row r="321">
@@ -14548,7 +15510,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I321" t="n">
@@ -14558,6 +15520,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K321" t="n">
+        <v>321</v>
       </c>
     </row>
     <row r="322">
@@ -14592,7 +15557,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I322" t="n">
@@ -14602,6 +15567,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K322" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="323">
@@ -14636,7 +15604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I323" t="n">
@@ -14646,6 +15614,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K323" t="n">
+        <v>322</v>
       </c>
     </row>
     <row r="324">
@@ -14680,7 +15651,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I324" t="n">
@@ -14690,6 +15661,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K324" t="n">
+        <v>323</v>
       </c>
     </row>
     <row r="325">
@@ -14724,7 +15698,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I325" t="n">
@@ -14734,6 +15708,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K325" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="326">
@@ -14768,7 +15745,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I326" t="n">
@@ -14778,6 +15755,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K326" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="327">
@@ -14812,7 +15792,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I327" t="n">
@@ -14822,6 +15802,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K327" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="328">
@@ -14856,7 +15839,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I328" t="n">
@@ -14866,6 +15849,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K328" t="n">
+        <v>327</v>
       </c>
     </row>
     <row r="329">
@@ -14900,7 +15886,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I329" t="n">
@@ -14910,6 +15896,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K329" t="n">
+        <v>328</v>
       </c>
     </row>
     <row r="330">
@@ -14944,7 +15933,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I330" t="n">
@@ -14954,6 +15943,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K330" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="331">
@@ -14988,7 +15980,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I331" t="n">
@@ -14998,6 +15990,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K331" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="332">
@@ -15032,7 +16027,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I332" t="n">
@@ -15042,6 +16037,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K332" t="n">
+        <v>331</v>
       </c>
     </row>
     <row r="333">
@@ -15076,7 +16074,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I333" t="n">
@@ -15086,6 +16084,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K333" t="n">
+        <v>332</v>
       </c>
     </row>
     <row r="334">
@@ -15120,7 +16121,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I334" t="n">
@@ -15130,6 +16131,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K334" t="n">
+        <v>333</v>
       </c>
     </row>
     <row r="335">
@@ -15164,7 +16168,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I335" t="n">
@@ -15174,6 +16178,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K335" t="n">
+        <v>334</v>
       </c>
     </row>
     <row r="336">
@@ -15208,7 +16215,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I336" t="n">
@@ -15218,6 +16225,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K336" t="n">
+        <v>334</v>
       </c>
     </row>
     <row r="337">
@@ -15252,7 +16262,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I337" t="n">
@@ -15262,6 +16272,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K337" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="338">
@@ -15296,7 +16309,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I338" t="n">
@@ -15306,6 +16319,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K338" t="n">
+        <v>337</v>
       </c>
     </row>
     <row r="339">
@@ -15340,7 +16356,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I339" t="n">
@@ -15350,6 +16366,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K339" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="340">
@@ -15384,7 +16403,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I340" t="n">
@@ -15394,6 +16413,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K340" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="341">
@@ -15428,7 +16450,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I341" t="n">
@@ -15438,6 +16460,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K341" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="342">
@@ -15472,7 +16497,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I342" t="n">
@@ -15482,6 +16507,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K342" t="n">
+        <v>341</v>
       </c>
     </row>
     <row r="343">
@@ -15516,7 +16544,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I343" t="n">
@@ -15526,6 +16554,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K343" t="n">
+        <v>342</v>
       </c>
     </row>
     <row r="344">
@@ -15560,7 +16591,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I344" t="n">
@@ -15570,6 +16601,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K344" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="345">
@@ -15604,7 +16638,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I345" t="n">
@@ -15614,6 +16648,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K345" t="n">
+        <v>343</v>
       </c>
     </row>
     <row r="346">
@@ -15648,7 +16685,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I346" t="n">
@@ -15658,6 +16695,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K346" t="n">
+        <v>345</v>
       </c>
     </row>
     <row r="347">
@@ -15692,7 +16732,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I347" t="n">
@@ -15702,6 +16742,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K347" t="n">
+        <v>347</v>
       </c>
     </row>
     <row r="348">
@@ -15736,7 +16779,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I348" t="n">
@@ -15746,6 +16789,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K348" t="n">
+        <v>346</v>
       </c>
     </row>
     <row r="349">
@@ -15780,7 +16826,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I349" t="n">
@@ -15790,6 +16836,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K349" t="n">
+        <v>348</v>
       </c>
     </row>
     <row r="350">
@@ -15824,7 +16873,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I350" t="n">
@@ -15834,6 +16883,9 @@
         <is>
           <t>Slightly Overperforming</t>
         </is>
+      </c>
+      <c r="K350" t="n">
+        <v>348</v>
       </c>
     </row>
     <row r="351">
@@ -15868,7 +16920,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I351" t="n">
@@ -15878,6 +16930,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K351" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="352">
@@ -15912,7 +16967,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I352" t="n">
@@ -15922,6 +16977,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K352" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="353">
@@ -15956,7 +17014,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I353" t="n">
@@ -15966,6 +17024,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K353" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="354">
@@ -16000,7 +17061,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I354" t="n">
@@ -16010,6 +17071,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K354" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="355">
@@ -16044,7 +17108,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I355" t="n">
@@ -16054,6 +17118,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K355" t="n">
+        <v>354</v>
       </c>
     </row>
     <row r="356">
@@ -16088,7 +17155,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I356" t="n">
@@ -16098,6 +17165,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K356" t="n">
+        <v>355</v>
       </c>
     </row>
     <row r="357">
@@ -16132,7 +17202,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I357" t="n">
@@ -16142,6 +17212,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K357" t="n">
+        <v>357</v>
       </c>
     </row>
     <row r="358">
@@ -16176,7 +17249,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I358" t="n">
@@ -16186,6 +17259,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K358" t="n">
+        <v>355</v>
       </c>
     </row>
     <row r="359">
@@ -16220,7 +17296,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I359" t="n">
@@ -16230,6 +17306,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K359" t="n">
+        <v>358</v>
       </c>
     </row>
     <row r="360">
@@ -16264,7 +17343,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I360" t="n">
@@ -16274,6 +17353,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K360" t="n">
+        <v>359</v>
       </c>
     </row>
     <row r="361">
@@ -16308,7 +17390,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I361" t="n">
@@ -16318,6 +17400,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K361" t="n">
+        <v>359</v>
       </c>
     </row>
     <row r="362">
@@ -16352,7 +17437,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I362" t="n">
@@ -16362,6 +17447,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K362" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="363">
@@ -16396,7 +17484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I363" t="n">
@@ -16406,6 +17494,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K363" t="n">
+        <v>361</v>
       </c>
     </row>
     <row r="364">
@@ -16440,7 +17531,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I364" t="n">
@@ -16450,6 +17541,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K364" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="365">
@@ -16484,7 +17578,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I365" t="n">
@@ -16494,6 +17588,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K365" t="n">
+        <v>364</v>
       </c>
     </row>
     <row r="366">
@@ -16528,7 +17625,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I366" t="n">
@@ -16538,6 +17635,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K366" t="n">
+        <v>365</v>
       </c>
     </row>
     <row r="367">
@@ -16572,7 +17672,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I367" t="n">
@@ -16582,6 +17682,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K367" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="368">
@@ -16616,7 +17719,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I368" t="n">
@@ -16626,6 +17729,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K368" t="n">
+        <v>367</v>
       </c>
     </row>
     <row r="369">
@@ -16660,7 +17766,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I369" t="n">
@@ -16670,6 +17776,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K369" t="n">
+        <v>368</v>
       </c>
     </row>
     <row r="370">
@@ -16704,7 +17813,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I370" t="n">
@@ -16714,6 +17823,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K370" t="n">
+        <v>368</v>
       </c>
     </row>
     <row r="371">
@@ -16748,7 +17860,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I371" t="n">
@@ -16758,6 +17870,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K371" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="372">
@@ -16792,7 +17907,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I372" t="n">
@@ -16802,6 +17917,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K372" t="n">
+        <v>371</v>
       </c>
     </row>
     <row r="373">
@@ -16836,7 +17954,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I373" t="n">
@@ -16846,6 +17964,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K373" t="n">
+        <v>372</v>
       </c>
     </row>
     <row r="374">
@@ -16880,7 +18001,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I374" t="n">
@@ -16890,6 +18011,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K374" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="375">
@@ -16924,7 +18048,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I375" t="n">
@@ -16934,6 +18058,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K375" t="n">
+        <v>373</v>
       </c>
     </row>
     <row r="376">
@@ -16968,7 +18095,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I376" t="n">
@@ -16978,6 +18105,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K376" t="n">
+        <v>374</v>
       </c>
     </row>
     <row r="377">
@@ -17012,7 +18142,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I377" t="n">
@@ -17022,6 +18152,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K377" t="n">
+        <v>376</v>
       </c>
     </row>
     <row r="378">
@@ -17056,7 +18189,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I378" t="n">
@@ -17066,6 +18199,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K378" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="379">
@@ -17100,7 +18236,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I379" t="n">
@@ -17110,6 +18246,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K379" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="380">
@@ -17144,7 +18283,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I380" t="n">
@@ -17154,6 +18293,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K380" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="381">
@@ -17188,7 +18330,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Below Average</t>
+          <t>Limited Clutch Impact</t>
         </is>
       </c>
       <c r="I381" t="n">
@@ -17198,6 +18340,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K381" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="382">
@@ -17243,6 +18388,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K382" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -17287,6 +18435,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K383" t="n">
+        <v>382</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -17331,6 +18482,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K384" t="n">
+        <v>383</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -17375,6 +18529,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K385" t="n">
+        <v>383</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -17419,6 +18576,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K386" t="n">
+        <v>385</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -17463,6 +18623,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K387" t="n">
+        <v>386</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -17507,6 +18670,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K388" t="n">
+        <v>387</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -17551,6 +18717,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K389" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -17595,6 +18764,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K390" t="n">
+        <v>389</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -17639,6 +18811,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K391" t="n">
+        <v>390</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -17683,6 +18858,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K392" t="n">
+        <v>391</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -17727,6 +18905,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K393" t="n">
+        <v>392</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -17771,6 +18952,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K394" t="n">
+        <v>392</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -17815,6 +18999,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K395" t="n">
+        <v>394</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -17859,6 +19046,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K396" t="n">
+        <v>396</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -17903,6 +19093,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K397" t="n">
+        <v>395</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -17947,6 +19140,9 @@
           <t>Slightly Overperforming</t>
         </is>
       </c>
+      <c r="K398" t="n">
+        <v>397</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -17991,6 +19187,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K399" t="n">
+        <v>398</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -18035,6 +19234,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K400" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -18079,6 +19281,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K401" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -18123,6 +19328,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K402" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -18167,6 +19375,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K403" t="n">
+        <v>402</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -18211,6 +19422,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K404" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -18255,6 +19469,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K405" t="n">
+        <v>404</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -18299,6 +19516,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K406" t="n">
+        <v>405</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -18343,6 +19563,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K407" t="n">
+        <v>406</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -18387,6 +19610,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K408" t="n">
+        <v>407</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -18431,6 +19657,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K409" t="n">
+        <v>408</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -18475,6 +19704,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K410" t="n">
+        <v>409</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -18519,6 +19751,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K411" t="n">
+        <v>410</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -18563,6 +19798,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K412" t="n">
+        <v>410</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -18607,6 +19845,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K413" t="n">
+        <v>412</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -18651,6 +19892,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K414" t="n">
+        <v>413</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -18695,6 +19939,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K415" t="n">
+        <v>414</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -18739,6 +19986,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K416" t="n">
+        <v>415</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -18783,6 +20033,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K417" t="n">
+        <v>416</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -18827,6 +20080,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K418" t="n">
+        <v>417</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -18871,6 +20127,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K419" t="n">
+        <v>418</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -18915,6 +20174,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K420" t="n">
+        <v>419</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -18959,6 +20221,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K421" t="n">
+        <v>420</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -19003,6 +20268,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K422" t="n">
+        <v>421</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -19047,6 +20315,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K423" t="n">
+        <v>422</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -19091,6 +20362,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K424" t="n">
+        <v>423</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -19135,6 +20409,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K425" t="n">
+        <v>425</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -19179,6 +20456,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K426" t="n">
+        <v>424</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -19223,6 +20503,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K427" t="n">
+        <v>426</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -19267,6 +20550,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K428" t="n">
+        <v>427</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -19311,6 +20597,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K429" t="n">
+        <v>428</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -19355,6 +20644,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K430" t="n">
+        <v>430</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -19399,6 +20691,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K431" t="n">
+        <v>429</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -19443,6 +20738,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K432" t="n">
+        <v>431</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -19487,6 +20785,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K433" t="n">
+        <v>432</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -19531,6 +20832,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K434" t="n">
+        <v>434</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -19575,6 +20879,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K435" t="n">
+        <v>433</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -19619,6 +20926,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K436" t="n">
+        <v>435</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -19663,6 +20973,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K437" t="n">
+        <v>435</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -19707,6 +21020,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K438" t="n">
+        <v>435</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -19751,6 +21067,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K439" t="n">
+        <v>435</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -19795,6 +21114,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K440" t="n">
+        <v>435</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -19839,6 +21161,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K441" t="n">
+        <v>435</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -19883,6 +21208,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K442" t="n">
+        <v>435</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -19927,6 +21255,9 @@
           <t>Slightly Underperforming</t>
         </is>
       </c>
+      <c r="K443" t="n">
+        <v>435</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -19970,6 +21301,9 @@
         <is>
           <t>Slightly Underperforming</t>
         </is>
+      </c>
+      <c r="K444" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Player Clutch Statistics 1.xlsx
+++ b/Player Clutch Statistics 1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K444"/>
+  <dimension ref="A1:J444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,6 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Reliability</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>Rank</t>
         </is>
       </c>
@@ -523,12 +518,7 @@
       <c r="I2" t="n">
         <v>0.09077269317329326</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
+      <c r="J2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -570,12 +560,7 @@
       <c r="I3" t="n">
         <v>0.1707836456558773</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
+      <c r="J3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -617,12 +602,7 @@
       <c r="I4" t="n">
         <v>0.1970705725699067</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -664,12 +644,7 @@
       <c r="I5" t="n">
         <v>0.03867187499999994</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
+      <c r="J5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -711,12 +686,7 @@
       <c r="I6" t="n">
         <v>0.0766347355268638</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
+      <c r="J6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -758,12 +728,7 @@
       <c r="I7" t="n">
         <v>0.1117877337973032</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
+      <c r="J7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -805,12 +770,7 @@
       <c r="I8" t="n">
         <v>0.001574803149606406</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
+      <c r="J8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -852,12 +812,7 @@
       <c r="I9" t="n">
         <v>0.09903593339176152</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
+      <c r="J9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -899,12 +854,7 @@
       <c r="I10" t="n">
         <v>0.07475010864841368</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
+      <c r="J10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -946,12 +896,7 @@
       <c r="I11" t="n">
         <v>0.0823838737949167</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
+      <c r="J11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -993,12 +938,7 @@
       <c r="I12" t="n">
         <v>-0.0397456279809221</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
+      <c r="J12" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1040,12 +980,7 @@
       <c r="I13" t="n">
         <v>0.1053595968850207</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
+      <c r="J13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1087,12 +1022,7 @@
       <c r="I14" t="n">
         <v>-0.03560000000000002</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
+      <c r="J14" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1134,12 +1064,7 @@
       <c r="I15" t="n">
         <v>-0.06822612085769982</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
+      <c r="J15" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1181,12 +1106,7 @@
       <c r="I16" t="n">
         <v>0.0910755148741418</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
+      <c r="J16" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1228,12 +1148,7 @@
       <c r="I17" t="n">
         <v>0.0850869167429094</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
+      <c r="J17" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1275,12 +1190,7 @@
       <c r="I18" t="n">
         <v>-0.05170340681362722</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
+      <c r="J18" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1322,12 +1232,7 @@
       <c r="I19" t="n">
         <v>-0.01629072681704263</v>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
+      <c r="J19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1369,12 +1274,7 @@
       <c r="I20" t="n">
         <v>0.04689593568557394</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
+      <c r="J20" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1416,12 +1316,7 @@
       <c r="I21" t="n">
         <v>0.03996447602131448</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
+      <c r="J21" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1463,12 +1358,7 @@
       <c r="I22" t="n">
         <v>0.1640159045725647</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
+      <c r="J22" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1510,12 +1400,7 @@
       <c r="I23" t="n">
         <v>-0.01306913996627313</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
+      <c r="J23" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1557,12 +1442,7 @@
       <c r="I24" t="n">
         <v>-0.1049004594180705</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
+      <c r="J24" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1604,12 +1484,7 @@
       <c r="I25" t="n">
         <v>0.07192254495159053</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
+      <c r="J25" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1651,12 +1526,7 @@
       <c r="I26" t="n">
         <v>0.1105263157894738</v>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
+      <c r="J26" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1698,12 +1568,7 @@
       <c r="I27" t="n">
         <v>-0.04372937293729368</v>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
+      <c r="J27" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1745,12 +1610,7 @@
       <c r="I28" t="n">
         <v>0.1274939172749392</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
+      <c r="J28" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1792,12 +1652,7 @@
       <c r="I29" t="n">
         <v>0.1194390715667311</v>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
+      <c r="J29" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1839,12 +1694,7 @@
       <c r="I30" t="n">
         <v>-0.01112061591103499</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
+      <c r="J30" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1886,12 +1736,7 @@
       <c r="I31" t="n">
         <v>0.00347372991749884</v>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
+      <c r="J31" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1933,12 +1778,7 @@
       <c r="I32" t="n">
         <v>-0.07824351297405192</v>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
+      <c r="J32" t="n">
         <v>31</v>
       </c>
     </row>
@@ -1980,12 +1820,7 @@
       <c r="I33" t="n">
         <v>-0.001302083333333229</v>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
+      <c r="J33" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2027,12 +1862,7 @@
       <c r="I34" t="n">
         <v>0.03143242029636279</v>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
+      <c r="J34" t="n">
         <v>33</v>
       </c>
     </row>
@@ -2074,12 +1904,7 @@
       <c r="I35" t="n">
         <v>0.09243295019157087</v>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
+      <c r="J35" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2121,12 +1946,7 @@
       <c r="I36" t="n">
         <v>0.02334979793444093</v>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
+      <c r="J36" t="n">
         <v>35</v>
       </c>
     </row>
@@ -2168,12 +1988,7 @@
       <c r="I37" t="n">
         <v>-0.003502626970227596</v>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
+      <c r="J37" t="n">
         <v>36</v>
       </c>
     </row>
@@ -2215,12 +2030,7 @@
       <c r="I38" t="n">
         <v>0.1564729867482161</v>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
+      <c r="J38" t="n">
         <v>37</v>
       </c>
     </row>
@@ -2262,12 +2072,7 @@
       <c r="I39" t="n">
         <v>-0.05818786367414791</v>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
+      <c r="J39" t="n">
         <v>38</v>
       </c>
     </row>
@@ -2309,12 +2114,7 @@
       <c r="I40" t="n">
         <v>-0.01264167393199663</v>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
+      <c r="J40" t="n">
         <v>39</v>
       </c>
     </row>
@@ -2356,12 +2156,7 @@
       <c r="I41" t="n">
         <v>0.01388266905508295</v>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
+      <c r="J41" t="n">
         <v>40</v>
       </c>
     </row>
@@ -2403,12 +2198,7 @@
       <c r="I42" t="n">
         <v>0.04642525533890437</v>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
+      <c r="J42" t="n">
         <v>41</v>
       </c>
     </row>
@@ -2450,12 +2240,7 @@
       <c r="I43" t="n">
         <v>0.01030927835051548</v>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
+      <c r="J43" t="n">
         <v>41</v>
       </c>
     </row>
@@ -2497,12 +2282,7 @@
       <c r="I44" t="n">
         <v>0.06793349168646079</v>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
+      <c r="J44" t="n">
         <v>43</v>
       </c>
     </row>
@@ -2544,12 +2324,7 @@
       <c r="I45" t="n">
         <v>-0.05958875367184215</v>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
+      <c r="J45" t="n">
         <v>44</v>
       </c>
     </row>
@@ -2591,12 +2366,7 @@
       <c r="I46" t="n">
         <v>0.001340482573726592</v>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
+      <c r="J46" t="n">
         <v>45</v>
       </c>
     </row>
@@ -2638,12 +2408,7 @@
       <c r="I47" t="n">
         <v>0.08931185944363114</v>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
+      <c r="J47" t="n">
         <v>46</v>
       </c>
     </row>
@@ -2685,12 +2450,7 @@
       <c r="I48" t="n">
         <v>-0.004016064257028106</v>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
+      <c r="J48" t="n">
         <v>47</v>
       </c>
     </row>
@@ -2732,12 +2492,7 @@
       <c r="I49" t="n">
         <v>-0.01720335244816941</v>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
+      <c r="J49" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2779,12 +2534,7 @@
       <c r="I50" t="n">
         <v>0.02866389274156269</v>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
+      <c r="J50" t="n">
         <v>49</v>
       </c>
     </row>
@@ -2826,12 +2576,7 @@
       <c r="I51" t="n">
         <v>0.02922077922077934</v>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
+      <c r="J51" t="n">
         <v>51</v>
       </c>
     </row>
@@ -2873,12 +2618,7 @@
       <c r="I52" t="n">
         <v>0.03353516534699592</v>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
+      <c r="J52" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2920,12 +2660,7 @@
       <c r="I53" t="n">
         <v>0.04339622641509442</v>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
+      <c r="J53" t="n">
         <v>52</v>
       </c>
     </row>
@@ -2967,12 +2702,7 @@
       <c r="I54" t="n">
         <v>0.09194831013916489</v>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
+      <c r="J54" t="n">
         <v>53</v>
       </c>
     </row>
@@ -3014,12 +2744,7 @@
       <c r="I55" t="n">
         <v>-0.01572327044025163</v>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
+      <c r="J55" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3061,12 +2786,7 @@
       <c r="I56" t="n">
         <v>-0.1091578086672118</v>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
+      <c r="J56" t="n">
         <v>55</v>
       </c>
     </row>
@@ -3108,12 +2828,7 @@
       <c r="I57" t="n">
         <v>0.03912213740458016</v>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
+      <c r="J57" t="n">
         <v>56</v>
       </c>
     </row>
@@ -3155,12 +2870,7 @@
       <c r="I58" t="n">
         <v>-0.01183970856102011</v>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
+      <c r="J58" t="n">
         <v>57</v>
       </c>
     </row>
@@ -3202,12 +2912,7 @@
       <c r="I59" t="n">
         <v>-0.1252019386106624</v>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
+      <c r="J59" t="n">
         <v>58</v>
       </c>
     </row>
@@ -3249,12 +2954,7 @@
       <c r="I60" t="n">
         <v>0.01371158392435001</v>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
+      <c r="J60" t="n">
         <v>59</v>
       </c>
     </row>
@@ -3296,12 +2996,7 @@
       <c r="I61" t="n">
         <v>-0.07118055555555558</v>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
+      <c r="J61" t="n">
         <v>60</v>
       </c>
     </row>
@@ -3343,12 +3038,7 @@
       <c r="I62" t="n">
         <v>-0.0138376383763838</v>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
+      <c r="J62" t="n">
         <v>61</v>
       </c>
     </row>
@@ -3390,12 +3080,7 @@
       <c r="I63" t="n">
         <v>-0.01801385681293289</v>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
+      <c r="J63" t="n">
         <v>62</v>
       </c>
     </row>
@@ -3437,12 +3122,7 @@
       <c r="I64" t="n">
         <v>0.02510864316755189</v>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
+      <c r="J64" t="n">
         <v>63</v>
       </c>
     </row>
@@ -3484,12 +3164,7 @@
       <c r="I65" t="n">
         <v>-0.08817204301075272</v>
       </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
+      <c r="J65" t="n">
         <v>64</v>
       </c>
     </row>
@@ -3531,12 +3206,7 @@
       <c r="I66" t="n">
         <v>0.2359813084112149</v>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
+      <c r="J66" t="n">
         <v>65</v>
       </c>
     </row>
@@ -3578,12 +3248,7 @@
       <c r="I67" t="n">
         <v>-0.09660798626019751</v>
       </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
+      <c r="J67" t="n">
         <v>66</v>
       </c>
     </row>
@@ -3625,12 +3290,7 @@
       <c r="I68" t="n">
         <v>0.01699854298203018</v>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
+      <c r="J68" t="n">
         <v>67</v>
       </c>
     </row>
@@ -3672,12 +3332,7 @@
       <c r="I69" t="n">
         <v>-0.0104265402843603</v>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
+      <c r="J69" t="n">
         <v>68</v>
       </c>
     </row>
@@ -3719,12 +3374,7 @@
       <c r="I70" t="n">
         <v>-0.04097605893186006</v>
       </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K70" t="n">
+      <c r="J70" t="n">
         <v>69</v>
       </c>
     </row>
@@ -3766,12 +3416,7 @@
       <c r="I71" t="n">
         <v>0.1042553191489362</v>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K71" t="n">
+      <c r="J71" t="n">
         <v>70</v>
       </c>
     </row>
@@ -3813,12 +3458,7 @@
       <c r="I72" t="n">
         <v>-0.05215004574565419</v>
       </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K72" t="n">
+      <c r="J72" t="n">
         <v>71</v>
       </c>
     </row>
@@ -3860,12 +3500,7 @@
       <c r="I73" t="n">
         <v>0.4927849927849929</v>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K73" t="n">
+      <c r="J73" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3907,12 +3542,7 @@
       <c r="I74" t="n">
         <v>0.04026170105686969</v>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
+      <c r="J74" t="n">
         <v>73</v>
       </c>
     </row>
@@ -3954,12 +3584,7 @@
       <c r="I75" t="n">
         <v>0.005862237420615584</v>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K75" t="n">
+      <c r="J75" t="n">
         <v>75</v>
       </c>
     </row>
@@ -4001,12 +3626,7 @@
       <c r="I76" t="n">
         <v>0.03311590566984447</v>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K76" t="n">
+      <c r="J76" t="n">
         <v>74</v>
       </c>
     </row>
@@ -4048,12 +3668,7 @@
       <c r="I77" t="n">
         <v>0.04363267376966004</v>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K77" t="n">
+      <c r="J77" t="n">
         <v>76</v>
       </c>
     </row>
@@ -4095,12 +3710,7 @@
       <c r="I78" t="n">
         <v>0.0770844257996853</v>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K78" t="n">
+      <c r="J78" t="n">
         <v>77</v>
       </c>
     </row>
@@ -4142,12 +3752,7 @@
       <c r="I79" t="n">
         <v>0.1049515608180841</v>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K79" t="n">
+      <c r="J79" t="n">
         <v>78</v>
       </c>
     </row>
@@ -4189,12 +3794,7 @@
       <c r="I80" t="n">
         <v>-0.01911132345914948</v>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K80" t="n">
+      <c r="J80" t="n">
         <v>79</v>
       </c>
     </row>
@@ -4236,12 +3836,7 @@
       <c r="I81" t="n">
         <v>-0.126916524701874</v>
       </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K81" t="n">
+      <c r="J81" t="n">
         <v>80</v>
       </c>
     </row>
@@ -4283,12 +3878,7 @@
       <c r="I82" t="n">
         <v>0.01238236750866766</v>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K82" t="n">
+      <c r="J82" t="n">
         <v>81</v>
       </c>
     </row>
@@ -4330,12 +3920,7 @@
       <c r="I83" t="n">
         <v>0.009415262636273602</v>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K83" t="n">
+      <c r="J83" t="n">
         <v>82</v>
       </c>
     </row>
@@ -4377,12 +3962,7 @@
       <c r="I84" t="n">
         <v>-0.1284796573875803</v>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K84" t="n">
+      <c r="J84" t="n">
         <v>83</v>
       </c>
     </row>
@@ -4424,12 +4004,7 @@
       <c r="I85" t="n">
         <v>-0.1008849557522124</v>
       </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K85" t="n">
+      <c r="J85" t="n">
         <v>84</v>
       </c>
     </row>
@@ -4471,12 +4046,7 @@
       <c r="I86" t="n">
         <v>-0.09221128021486118</v>
       </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K86" t="n">
+      <c r="J86" t="n">
         <v>85</v>
       </c>
     </row>
@@ -4518,12 +4088,7 @@
       <c r="I87" t="n">
         <v>-0.06035283194057571</v>
       </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K87" t="n">
+      <c r="J87" t="n">
         <v>86</v>
       </c>
     </row>
@@ -4565,12 +4130,7 @@
       <c r="I88" t="n">
         <v>-0.01703992210321314</v>
       </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K88" t="n">
+      <c r="J88" t="n">
         <v>87</v>
       </c>
     </row>
@@ -4612,12 +4172,7 @@
       <c r="I89" t="n">
         <v>-0.0793433652530779</v>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K89" t="n">
+      <c r="J89" t="n">
         <v>87</v>
       </c>
     </row>
@@ -4659,12 +4214,7 @@
       <c r="I90" t="n">
         <v>-0.04586288416075645</v>
       </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K90" t="n">
+      <c r="J90" t="n">
         <v>89</v>
       </c>
     </row>
@@ -4706,12 +4256,7 @@
       <c r="I91" t="n">
         <v>-0.004482071713147404</v>
       </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K91" t="n">
+      <c r="J91" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4753,12 +4298,7 @@
       <c r="I92" t="n">
         <v>-0.02730375426621171</v>
       </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K92" t="n">
+      <c r="J92" t="n">
         <v>91</v>
       </c>
     </row>
@@ -4800,12 +4340,7 @@
       <c r="I93" t="n">
         <v>-0.08619899128839978</v>
       </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K93" t="n">
+      <c r="J93" t="n">
         <v>92</v>
       </c>
     </row>
@@ -4847,12 +4382,7 @@
       <c r="I94" t="n">
         <v>-0.05240590757503563</v>
       </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K94" t="n">
+      <c r="J94" t="n">
         <v>93</v>
       </c>
     </row>
@@ -4894,12 +4424,7 @@
       <c r="I95" t="n">
         <v>-0.1004524886877829</v>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K95" t="n">
+      <c r="J95" t="n">
         <v>94</v>
       </c>
     </row>
@@ -4941,12 +4466,7 @@
       <c r="I96" t="n">
         <v>-0.02121361618154907</v>
       </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K96" t="n">
+      <c r="J96" t="n">
         <v>95</v>
       </c>
     </row>
@@ -4988,12 +4508,7 @@
       <c r="I97" t="n">
         <v>0.1104225352112677</v>
       </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K97" t="n">
+      <c r="J97" t="n">
         <v>96</v>
       </c>
     </row>
@@ -5035,12 +4550,7 @@
       <c r="I98" t="n">
         <v>-0.09793103448275857</v>
       </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K98" t="n">
+      <c r="J98" t="n">
         <v>97</v>
       </c>
     </row>
@@ -5082,12 +4592,7 @@
       <c r="I99" t="n">
         <v>0.02621919244887257</v>
       </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K99" t="n">
+      <c r="J99" t="n">
         <v>98</v>
       </c>
     </row>
@@ -5129,12 +4634,7 @@
       <c r="I100" t="n">
         <v>-0.1097949886104784</v>
       </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K100" t="n">
+      <c r="J100" t="n">
         <v>99</v>
       </c>
     </row>
@@ -5176,12 +4676,7 @@
       <c r="I101" t="n">
         <v>0.01246753246753239</v>
       </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K101" t="n">
+      <c r="J101" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5223,12 +4718,7 @@
       <c r="I102" t="n">
         <v>0.04202586206896558</v>
       </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K102" t="n">
+      <c r="J102" t="n">
         <v>101</v>
       </c>
     </row>
@@ -5270,12 +4760,7 @@
       <c r="I103" t="n">
         <v>-0.1225601452564686</v>
       </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K103" t="n">
+      <c r="J103" t="n">
         <v>102</v>
       </c>
     </row>
@@ -5317,12 +4802,7 @@
       <c r="I104" t="n">
         <v>0.07640825432236481</v>
       </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K104" t="n">
+      <c r="J104" t="n">
         <v>103</v>
       </c>
     </row>
@@ -5364,12 +4844,7 @@
       <c r="I105" t="n">
         <v>0.04043126684636118</v>
       </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K105" t="n">
+      <c r="J105" t="n">
         <v>105</v>
       </c>
     </row>
@@ -5411,12 +4886,7 @@
       <c r="I106" t="n">
         <v>0.1214410226612434</v>
       </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K106" t="n">
+      <c r="J106" t="n">
         <v>104</v>
       </c>
     </row>
@@ -5458,12 +4928,7 @@
       <c r="I107" t="n">
         <v>-0.05492888670917121</v>
       </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K107" t="n">
+      <c r="J107" t="n">
         <v>106</v>
       </c>
     </row>
@@ -5505,12 +4970,7 @@
       <c r="I108" t="n">
         <v>0.07357859531772576</v>
       </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K108" t="n">
+      <c r="J108" t="n">
         <v>107</v>
       </c>
     </row>
@@ -5552,12 +5012,7 @@
       <c r="I109" t="n">
         <v>0.02720000000000008</v>
       </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K109" t="n">
+      <c r="J109" t="n">
         <v>108</v>
       </c>
     </row>
@@ -5599,12 +5054,7 @@
       <c r="I110" t="n">
         <v>-0.12183908045977</v>
       </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K110" t="n">
+      <c r="J110" t="n">
         <v>109</v>
       </c>
     </row>
@@ -5646,12 +5096,7 @@
       <c r="I111" t="n">
         <v>0.1430281268701377</v>
       </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K111" t="n">
+      <c r="J111" t="n">
         <v>109</v>
       </c>
     </row>
@@ -5693,12 +5138,7 @@
       <c r="I112" t="n">
         <v>-0.09177365668093199</v>
       </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K112" t="n">
+      <c r="J112" t="n">
         <v>111</v>
       </c>
     </row>
@@ -5740,12 +5180,7 @@
       <c r="I113" t="n">
         <v>-0.09199237368922782</v>
       </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K113" t="n">
+      <c r="J113" t="n">
         <v>112</v>
       </c>
     </row>
@@ -5787,12 +5222,7 @@
       <c r="I114" t="n">
         <v>-0.2399201596806388</v>
       </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K114" t="n">
+      <c r="J114" t="n">
         <v>113</v>
       </c>
     </row>
@@ -5834,12 +5264,7 @@
       <c r="I115" t="n">
         <v>-0.005744125326370728</v>
       </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K115" t="n">
+      <c r="J115" t="n">
         <v>113</v>
       </c>
     </row>
@@ -5881,12 +5306,7 @@
       <c r="I116" t="n">
         <v>-0.06123456790123449</v>
       </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K116" t="n">
+      <c r="J116" t="n">
         <v>115</v>
       </c>
     </row>
@@ -5928,12 +5348,7 @@
       <c r="I117" t="n">
         <v>-0.07188264058679701</v>
       </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K117" t="n">
+      <c r="J117" t="n">
         <v>116</v>
       </c>
     </row>
@@ -5975,12 +5390,7 @@
       <c r="I118" t="n">
         <v>-0.0871868978805396</v>
       </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K118" t="n">
+      <c r="J118" t="n">
         <v>117</v>
       </c>
     </row>
@@ -6022,12 +5432,7 @@
       <c r="I119" t="n">
         <v>-0.03128205128205126</v>
       </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K119" t="n">
+      <c r="J119" t="n">
         <v>118</v>
       </c>
     </row>
@@ -6069,12 +5474,7 @@
       <c r="I120" t="n">
         <v>-0.05555555555555552</v>
       </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K120" t="n">
+      <c r="J120" t="n">
         <v>120</v>
       </c>
     </row>
@@ -6116,12 +5516,7 @@
       <c r="I121" t="n">
         <v>0.07521367521367522</v>
       </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K121" t="n">
+      <c r="J121" t="n">
         <v>119</v>
       </c>
     </row>
@@ -6163,12 +5558,7 @@
       <c r="I122" t="n">
         <v>-0.2289452166802944</v>
       </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K122" t="n">
+      <c r="J122" t="n">
         <v>121</v>
       </c>
     </row>
@@ -6210,12 +5600,7 @@
       <c r="I123" t="n">
         <v>-0.06175298804780869</v>
       </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K123" t="n">
+      <c r="J123" t="n">
         <v>122</v>
       </c>
     </row>
@@ -6257,12 +5642,7 @@
       <c r="I124" t="n">
         <v>-0.08989850169163861</v>
       </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K124" t="n">
+      <c r="J124" t="n">
         <v>123</v>
       </c>
     </row>
@@ -6304,12 +5684,7 @@
       <c r="I125" t="n">
         <v>-0.1523208652546193</v>
       </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K125" t="n">
+      <c r="J125" t="n">
         <v>124</v>
       </c>
     </row>
@@ -6351,12 +5726,7 @@
       <c r="I126" t="n">
         <v>-0.04619289340101524</v>
       </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K126" t="n">
+      <c r="J126" t="n">
         <v>125</v>
       </c>
     </row>
@@ -6398,12 +5768,7 @@
       <c r="I127" t="n">
         <v>0.03999999999999994</v>
       </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K127" t="n">
+      <c r="J127" t="n">
         <v>126</v>
       </c>
     </row>
@@ -6445,12 +5810,7 @@
       <c r="I128" t="n">
         <v>-0.1914248592464269</v>
       </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K128" t="n">
+      <c r="J128" t="n">
         <v>127</v>
       </c>
     </row>
@@ -6492,12 +5852,7 @@
       <c r="I129" t="n">
         <v>0.0591245025582717</v>
       </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K129" t="n">
+      <c r="J129" t="n">
         <v>128</v>
       </c>
     </row>
@@ -6539,12 +5894,7 @@
       <c r="I130" t="n">
         <v>0.1117084826762247</v>
       </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K130" t="n">
+      <c r="J130" t="n">
         <v>129</v>
       </c>
     </row>
@@ -6586,12 +5936,7 @@
       <c r="I131" t="n">
         <v>-0.04421593830334188</v>
       </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K131" t="n">
+      <c r="J131" t="n">
         <v>130</v>
       </c>
     </row>
@@ -6633,12 +5978,7 @@
       <c r="I132" t="n">
         <v>0.006535947712418355</v>
       </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K132" t="n">
+      <c r="J132" t="n">
         <v>131</v>
       </c>
     </row>
@@ -6680,12 +6020,7 @@
       <c r="I133" t="n">
         <v>-0.06440162271805272</v>
       </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K133" t="n">
+      <c r="J133" t="n">
         <v>132</v>
       </c>
     </row>
@@ -6727,12 +6062,7 @@
       <c r="I134" t="n">
         <v>-0.1266002844950213</v>
       </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K134" t="n">
+      <c r="J134" t="n">
         <v>133</v>
       </c>
     </row>
@@ -6774,12 +6104,7 @@
       <c r="I135" t="n">
         <v>-0.11671469740634</v>
       </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K135" t="n">
+      <c r="J135" t="n">
         <v>134</v>
       </c>
     </row>
@@ -6821,12 +6146,7 @@
       <c r="I136" t="n">
         <v>0.1474078700811992</v>
       </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K136" t="n">
+      <c r="J136" t="n">
         <v>135</v>
       </c>
     </row>
@@ -6868,12 +6188,7 @@
       <c r="I137" t="n">
         <v>-0.07150101419878298</v>
       </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K137" t="n">
+      <c r="J137" t="n">
         <v>136</v>
       </c>
     </row>
@@ -6915,12 +6230,7 @@
       <c r="I138" t="n">
         <v>-0.07626262626262634</v>
       </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K138" t="n">
+      <c r="J138" t="n">
         <v>138</v>
       </c>
     </row>
@@ -6962,12 +6272,7 @@
       <c r="I139" t="n">
         <v>-0.1528485409911997</v>
       </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K139" t="n">
+      <c r="J139" t="n">
         <v>137</v>
       </c>
     </row>
@@ -7009,12 +6314,7 @@
       <c r="I140" t="n">
         <v>-0.1470725995316159</v>
       </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K140" t="n">
+      <c r="J140" t="n">
         <v>139</v>
       </c>
     </row>
@@ -7056,12 +6356,7 @@
       <c r="I141" t="n">
         <v>-0.1536312849162011</v>
       </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K141" t="n">
+      <c r="J141" t="n">
         <v>140</v>
       </c>
     </row>
@@ -7103,12 +6398,7 @@
       <c r="I142" t="n">
         <v>0.1231435643564355</v>
       </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K142" t="n">
+      <c r="J142" t="n">
         <v>141</v>
       </c>
     </row>
@@ -7150,12 +6440,7 @@
       <c r="I143" t="n">
         <v>-0.1687356321839081</v>
       </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K143" t="n">
+      <c r="J143" t="n">
         <v>142</v>
       </c>
     </row>
@@ -7197,12 +6482,7 @@
       <c r="I144" t="n">
         <v>-0.0408704883227176</v>
       </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K144" t="n">
+      <c r="J144" t="n">
         <v>143</v>
       </c>
     </row>
@@ -7244,12 +6524,7 @@
       <c r="I145" t="n">
         <v>0.002774694783573846</v>
       </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K145" t="n">
+      <c r="J145" t="n">
         <v>144</v>
       </c>
     </row>
@@ -7291,12 +6566,7 @@
       <c r="I146" t="n">
         <v>-0.07161257083977333</v>
       </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K146" t="n">
+      <c r="J146" t="n">
         <v>145</v>
       </c>
     </row>
@@ -7338,12 +6608,7 @@
       <c r="I147" t="n">
         <v>-0.04559915164369032</v>
       </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K147" t="n">
+      <c r="J147" t="n">
         <v>146</v>
       </c>
     </row>
@@ -7385,12 +6650,7 @@
       <c r="I148" t="n">
         <v>-0.0308274743104379</v>
       </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K148" t="n">
+      <c r="J148" t="n">
         <v>147</v>
       </c>
     </row>
@@ -7432,12 +6692,7 @@
       <c r="I149" t="n">
         <v>0.06287069988137617</v>
       </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K149" t="n">
+      <c r="J149" t="n">
         <v>152</v>
       </c>
     </row>
@@ -7479,12 +6734,7 @@
       <c r="I150" t="n">
         <v>0.1689497716894978</v>
       </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K150" t="n">
+      <c r="J150" t="n">
         <v>147</v>
       </c>
     </row>
@@ -7526,12 +6776,7 @@
       <c r="I151" t="n">
         <v>-0.1008529854490716</v>
       </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K151" t="n">
+      <c r="J151" t="n">
         <v>147</v>
       </c>
     </row>
@@ -7573,12 +6818,7 @@
       <c r="I152" t="n">
         <v>0.09334960341671758</v>
       </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K152" t="n">
+      <c r="J152" t="n">
         <v>147</v>
       </c>
     </row>
@@ -7620,12 +6860,7 @@
       <c r="I153" t="n">
         <v>-0.08337595907928383</v>
       </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K153" t="n">
+      <c r="J153" t="n">
         <v>147</v>
       </c>
     </row>
@@ -7667,12 +6902,7 @@
       <c r="I154" t="n">
         <v>-0.06263269639065816</v>
       </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K154" t="n">
+      <c r="J154" t="n">
         <v>153</v>
       </c>
     </row>
@@ -7714,12 +6944,7 @@
       <c r="I155" t="n">
         <v>-0.06960680127523904</v>
       </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K155" t="n">
+      <c r="J155" t="n">
         <v>154</v>
       </c>
     </row>
@@ -7761,12 +6986,7 @@
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K156" t="n">
+      <c r="J156" t="n">
         <v>155</v>
       </c>
     </row>
@@ -7808,12 +7028,7 @@
       <c r="I157" t="n">
         <v>-0.05114254624591936</v>
       </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K157" t="n">
+      <c r="J157" t="n">
         <v>157</v>
       </c>
     </row>
@@ -7855,12 +7070,7 @@
       <c r="I158" t="n">
         <v>-0.02949360044518629</v>
       </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K158" t="n">
+      <c r="J158" t="n">
         <v>156</v>
       </c>
     </row>
@@ -7902,12 +7112,7 @@
       <c r="I159" t="n">
         <v>-0.1610251450676982</v>
       </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K159" t="n">
+      <c r="J159" t="n">
         <v>158</v>
       </c>
     </row>
@@ -7949,12 +7154,7 @@
       <c r="I160" t="n">
         <v>-0.0297585626052778</v>
       </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K160" t="n">
+      <c r="J160" t="n">
         <v>159</v>
       </c>
     </row>
@@ -7996,12 +7196,7 @@
       <c r="I161" t="n">
         <v>-0.09633507853403139</v>
       </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K161" t="n">
+      <c r="J161" t="n">
         <v>160</v>
       </c>
     </row>
@@ -8043,12 +7238,7 @@
       <c r="I162" t="n">
         <v>0.1015325670498084</v>
       </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K162" t="n">
+      <c r="J162" t="n">
         <v>161</v>
       </c>
     </row>
@@ -8090,12 +7280,7 @@
       <c r="I163" t="n">
         <v>-0.08545647558386409</v>
       </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K163" t="n">
+      <c r="J163" t="n">
         <v>162</v>
       </c>
     </row>
@@ -8137,12 +7322,7 @@
       <c r="I164" t="n">
         <v>-0.06256800870511418</v>
       </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K164" t="n">
+      <c r="J164" t="n">
         <v>162</v>
       </c>
     </row>
@@ -8184,12 +7364,7 @@
       <c r="I165" t="n">
         <v>-0.01997716894977157</v>
       </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K165" t="n">
+      <c r="J165" t="n">
         <v>164</v>
       </c>
     </row>
@@ -8231,12 +7406,7 @@
       <c r="I166" t="n">
         <v>-0.1735776277724204</v>
       </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K166" t="n">
+      <c r="J166" t="n">
         <v>165</v>
       </c>
     </row>
@@ -8278,12 +7448,7 @@
       <c r="I167" t="n">
         <v>0.1229454306377381</v>
       </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K167" t="n">
+      <c r="J167" t="n">
         <v>166</v>
       </c>
     </row>
@@ -8325,12 +7490,7 @@
       <c r="I168" t="n">
         <v>-0.1025236593059937</v>
       </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K168" t="n">
+      <c r="J168" t="n">
         <v>167</v>
       </c>
     </row>
@@ -8372,12 +7532,7 @@
       <c r="I169" t="n">
         <v>-0.09655172413793105</v>
       </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K169" t="n">
+      <c r="J169" t="n">
         <v>168</v>
       </c>
     </row>
@@ -8419,12 +7574,7 @@
       <c r="I170" t="n">
         <v>-0.05826859045504999</v>
       </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K170" t="n">
+      <c r="J170" t="n">
         <v>169</v>
       </c>
     </row>
@@ -8466,12 +7616,7 @@
       <c r="I171" t="n">
         <v>0.04820766378244754</v>
       </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K171" t="n">
+      <c r="J171" t="n">
         <v>170</v>
       </c>
     </row>
@@ -8513,12 +7658,7 @@
       <c r="I172" t="n">
         <v>0.0925566343042071</v>
       </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K172" t="n">
+      <c r="J172" t="n">
         <v>171</v>
       </c>
     </row>
@@ -8560,12 +7700,7 @@
       <c r="I173" t="n">
         <v>0.05309181761399111</v>
       </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K173" t="n">
+      <c r="J173" t="n">
         <v>172</v>
       </c>
     </row>
@@ -8607,12 +7742,7 @@
       <c r="I174" t="n">
         <v>-0.1612742658038825</v>
       </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K174" t="n">
+      <c r="J174" t="n">
         <v>173</v>
       </c>
     </row>
@@ -8654,12 +7784,7 @@
       <c r="I175" t="n">
         <v>-0.001787842669845121</v>
       </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K175" t="n">
+      <c r="J175" t="n">
         <v>174</v>
       </c>
     </row>
@@ -8701,12 +7826,7 @@
       <c r="I176" t="n">
         <v>-0.1067805659369995</v>
       </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K176" t="n">
+      <c r="J176" t="n">
         <v>176</v>
       </c>
     </row>
@@ -8748,12 +7868,7 @@
       <c r="I177" t="n">
         <v>0.02449479485609321</v>
       </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K177" t="n">
+      <c r="J177" t="n">
         <v>175</v>
       </c>
     </row>
@@ -8795,12 +7910,7 @@
       <c r="I178" t="n">
         <v>-0.1007000538502962</v>
       </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K178" t="n">
+      <c r="J178" t="n">
         <v>177</v>
       </c>
     </row>
@@ -8842,12 +7952,7 @@
       <c r="I179" t="n">
         <v>-0.1133689839572193</v>
       </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K179" t="n">
+      <c r="J179" t="n">
         <v>178</v>
       </c>
     </row>
@@ -8889,12 +7994,7 @@
       <c r="I180" t="n">
         <v>-0.1722416375436846</v>
       </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K180" t="n">
+      <c r="J180" t="n">
         <v>179</v>
       </c>
     </row>
@@ -8936,12 +8036,7 @@
       <c r="I181" t="n">
         <v>-0.2239925023430179</v>
       </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K181" t="n">
+      <c r="J181" t="n">
         <v>180</v>
       </c>
     </row>
@@ -8983,12 +8078,7 @@
       <c r="I182" t="n">
         <v>0.2065934065934065</v>
       </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K182" t="n">
+      <c r="J182" t="n">
         <v>182</v>
       </c>
     </row>
@@ -9030,12 +8120,7 @@
       <c r="I183" t="n">
         <v>-0.1930426261636453</v>
       </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K183" t="n">
+      <c r="J183" t="n">
         <v>181</v>
       </c>
     </row>
@@ -9077,12 +8162,7 @@
       <c r="I184" t="n">
         <v>0.003045066991473639</v>
       </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K184" t="n">
+      <c r="J184" t="n">
         <v>183</v>
       </c>
     </row>
@@ -9124,12 +8204,7 @@
       <c r="I185" t="n">
         <v>-0.1001094091903721</v>
       </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K185" t="n">
+      <c r="J185" t="n">
         <v>184</v>
       </c>
     </row>
@@ -9171,12 +8246,7 @@
       <c r="I186" t="n">
         <v>-0.07860752386299824</v>
       </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K186" t="n">
+      <c r="J186" t="n">
         <v>185</v>
       </c>
     </row>
@@ -9218,12 +8288,7 @@
       <c r="I187" t="n">
         <v>-0.1477035490605429</v>
       </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K187" t="n">
+      <c r="J187" t="n">
         <v>186</v>
       </c>
     </row>
@@ -9265,12 +8330,7 @@
       <c r="I188" t="n">
         <v>-0.1456259821896281</v>
       </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K188" t="n">
+      <c r="J188" t="n">
         <v>187</v>
       </c>
     </row>
@@ -9312,12 +8372,7 @@
       <c r="I189" t="n">
         <v>-0.1325878594249202</v>
       </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K189" t="n">
+      <c r="J189" t="n">
         <v>188</v>
       </c>
     </row>
@@ -9359,12 +8414,7 @@
       <c r="I190" t="n">
         <v>0.02779532533164874</v>
       </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K190" t="n">
+      <c r="J190" t="n">
         <v>189</v>
       </c>
     </row>
@@ -9406,12 +8456,7 @@
       <c r="I191" t="n">
         <v>-0.08605174353205855</v>
       </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K191" t="n">
+      <c r="J191" t="n">
         <v>190</v>
       </c>
     </row>
@@ -9453,12 +8498,7 @@
       <c r="I192" t="n">
         <v>-0.04641598119858985</v>
       </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K192" t="n">
+      <c r="J192" t="n">
         <v>191</v>
       </c>
     </row>
@@ -9500,12 +8540,7 @@
       <c r="I193" t="n">
         <v>-0.2100389863547758</v>
       </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K193" t="n">
+      <c r="J193" t="n">
         <v>193</v>
       </c>
     </row>
@@ -9547,12 +8582,7 @@
       <c r="I194" t="n">
         <v>-0.2050024521824423</v>
       </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K194" t="n">
+      <c r="J194" t="n">
         <v>192</v>
       </c>
     </row>
@@ -9594,12 +8624,7 @@
       <c r="I195" t="n">
         <v>-0.1066298342541436</v>
       </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K195" t="n">
+      <c r="J195" t="n">
         <v>194</v>
       </c>
     </row>
@@ -9641,12 +8666,7 @@
       <c r="I196" t="n">
         <v>-0.1032759578012217</v>
       </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K196" t="n">
+      <c r="J196" t="n">
         <v>195</v>
       </c>
     </row>
@@ -9688,12 +8708,7 @@
       <c r="I197" t="n">
         <v>0.02153261557948068</v>
       </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K197" t="n">
+      <c r="J197" t="n">
         <v>196</v>
       </c>
     </row>
@@ -9735,12 +8750,7 @@
       <c r="I198" t="n">
         <v>-0.107360265633647</v>
       </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K198" t="n">
+      <c r="J198" t="n">
         <v>197</v>
       </c>
     </row>
@@ -9782,12 +8792,7 @@
       <c r="I199" t="n">
         <v>-0.1678719008264463</v>
       </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K199" t="n">
+      <c r="J199" t="n">
         <v>198</v>
       </c>
     </row>
@@ -9829,12 +8834,7 @@
       <c r="I200" t="n">
         <v>-0.02253349573690627</v>
       </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K200" t="n">
+      <c r="J200" t="n">
         <v>199</v>
       </c>
     </row>
@@ -9876,12 +8876,7 @@
       <c r="I201" t="n">
         <v>-0.09537246049661387</v>
       </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K201" t="n">
+      <c r="J201" t="n">
         <v>200</v>
       </c>
     </row>
@@ -9923,12 +8918,7 @@
       <c r="I202" t="n">
         <v>-0.03204353083434085</v>
       </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K202" t="n">
+      <c r="J202" t="n">
         <v>201</v>
       </c>
     </row>
@@ -9970,12 +8960,7 @@
       <c r="I203" t="n">
         <v>-0.1311207834602828</v>
       </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K203" t="n">
+      <c r="J203" t="n">
         <v>202</v>
       </c>
     </row>
@@ -10017,12 +9002,7 @@
       <c r="I204" t="n">
         <v>-0.04313960455362496</v>
       </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K204" t="n">
+      <c r="J204" t="n">
         <v>203</v>
       </c>
     </row>
@@ -10064,12 +9044,7 @@
       <c r="I205" t="n">
         <v>0.006333122229259115</v>
       </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K205" t="n">
+      <c r="J205" t="n">
         <v>204</v>
       </c>
     </row>
@@ -10111,12 +9086,7 @@
       <c r="I206" t="n">
         <v>-0.09851936218678808</v>
       </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K206" t="n">
+      <c r="J206" t="n">
         <v>205</v>
       </c>
     </row>
@@ -10158,12 +9128,7 @@
       <c r="I207" t="n">
         <v>-0.1875642343268243</v>
       </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K207" t="n">
+      <c r="J207" t="n">
         <v>207</v>
       </c>
     </row>
@@ -10205,12 +9170,7 @@
       <c r="I208" t="n">
         <v>0.06752194463200539</v>
       </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K208" t="n">
+      <c r="J208" t="n">
         <v>206</v>
       </c>
     </row>
@@ -10252,12 +9212,7 @@
       <c r="I209" t="n">
         <v>-0.04487568223165546</v>
       </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K209" t="n">
+      <c r="J209" t="n">
         <v>208</v>
       </c>
     </row>
@@ -10299,12 +9254,7 @@
       <c r="I210" t="n">
         <v>-0.1303147432357813</v>
       </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K210" t="n">
+      <c r="J210" t="n">
         <v>210</v>
       </c>
     </row>
@@ -10346,12 +9296,7 @@
       <c r="I211" t="n">
         <v>-0.2413294797687862</v>
       </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K211" t="n">
+      <c r="J211" t="n">
         <v>208</v>
       </c>
     </row>
@@ -10393,12 +9338,7 @@
       <c r="I212" t="n">
         <v>-0.1192609182530795</v>
       </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K212" t="n">
+      <c r="J212" t="n">
         <v>212</v>
       </c>
     </row>
@@ -10440,12 +9380,7 @@
       <c r="I213" t="n">
         <v>-0.1128031584884377</v>
       </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K213" t="n">
+      <c r="J213" t="n">
         <v>211</v>
       </c>
     </row>
@@ -10487,12 +9422,7 @@
       <c r="I214" t="n">
         <v>-0.1676392572944298</v>
       </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K214" t="n">
+      <c r="J214" t="n">
         <v>214</v>
       </c>
     </row>
@@ -10534,12 +9464,7 @@
       <c r="I215" t="n">
         <v>-0.184935064935065</v>
       </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K215" t="n">
+      <c r="J215" t="n">
         <v>213</v>
       </c>
     </row>
@@ -10581,12 +9506,7 @@
       <c r="I216" t="n">
         <v>-0.2060913705583756</v>
       </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K216" t="n">
+      <c r="J216" t="n">
         <v>215</v>
       </c>
     </row>
@@ -10628,12 +9548,7 @@
       <c r="I217" t="n">
         <v>-0.07928994082840227</v>
       </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K217" t="n">
+      <c r="J217" t="n">
         <v>216</v>
       </c>
     </row>
@@ -10675,12 +9590,7 @@
       <c r="I218" t="n">
         <v>-0.1751592356687899</v>
       </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K218" t="n">
+      <c r="J218" t="n">
         <v>218</v>
       </c>
     </row>
@@ -10722,12 +9632,7 @@
       <c r="I219" t="n">
         <v>-0.1145299145299146</v>
       </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K219" t="n">
+      <c r="J219" t="n">
         <v>217</v>
       </c>
     </row>
@@ -10769,12 +9674,7 @@
       <c r="I220" t="n">
         <v>0.08631578947368423</v>
       </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K220" t="n">
+      <c r="J220" t="n">
         <v>220</v>
       </c>
     </row>
@@ -10816,12 +9716,7 @@
       <c r="I221" t="n">
         <v>-0.1522453450164294</v>
       </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K221" t="n">
+      <c r="J221" t="n">
         <v>219</v>
       </c>
     </row>
@@ -10863,12 +9758,7 @@
       <c r="I222" t="n">
         <v>-0.1206602162777462</v>
       </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K222" t="n">
+      <c r="J222" t="n">
         <v>221</v>
       </c>
     </row>
@@ -10910,12 +9800,7 @@
       <c r="I223" t="n">
         <v>-0.1732114039806348</v>
       </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K223" t="n">
+      <c r="J223" t="n">
         <v>222</v>
       </c>
     </row>
@@ -10957,12 +9842,7 @@
       <c r="I224" t="n">
         <v>-0.2277327935222673</v>
       </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K224" t="n">
+      <c r="J224" t="n">
         <v>223</v>
       </c>
     </row>
@@ -11004,12 +9884,7 @@
       <c r="I225" t="n">
         <v>-0.2357071213640923</v>
       </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K225" t="n">
+      <c r="J225" t="n">
         <v>224</v>
       </c>
     </row>
@@ -11051,12 +9926,7 @@
       <c r="I226" t="n">
         <v>-0.1005917159763313</v>
       </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K226" t="n">
+      <c r="J226" t="n">
         <v>225</v>
       </c>
     </row>
@@ -11098,12 +9968,7 @@
       <c r="I227" t="n">
         <v>-0.1154518950437317</v>
       </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K227" t="n">
+      <c r="J227" t="n">
         <v>227</v>
       </c>
     </row>
@@ -11145,12 +10010,7 @@
       <c r="I228" t="n">
         <v>-0.03252551020408162</v>
       </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K228" t="n">
+      <c r="J228" t="n">
         <v>226</v>
       </c>
     </row>
@@ -11192,12 +10052,7 @@
       <c r="I229" t="n">
         <v>-0.1181606519208381</v>
       </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K229" t="n">
+      <c r="J229" t="n">
         <v>228</v>
       </c>
     </row>
@@ -11239,12 +10094,7 @@
       <c r="I230" t="n">
         <v>-0.03318442884492658</v>
       </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K230" t="n">
+      <c r="J230" t="n">
         <v>230</v>
       </c>
     </row>
@@ -11286,12 +10136,7 @@
       <c r="I231" t="n">
         <v>-0.2973098330241187</v>
       </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K231" t="n">
+      <c r="J231" t="n">
         <v>228</v>
       </c>
     </row>
@@ -11333,12 +10178,7 @@
       <c r="I232" t="n">
         <v>-0.2229070364663584</v>
       </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K232" t="n">
+      <c r="J232" t="n">
         <v>231</v>
       </c>
     </row>
@@ -11380,12 +10220,7 @@
       <c r="I233" t="n">
         <v>-0.2175038839979285</v>
       </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K233" t="n">
+      <c r="J233" t="n">
         <v>233</v>
       </c>
     </row>
@@ -11427,12 +10262,7 @@
       <c r="I234" t="n">
         <v>-0.2865911237016053</v>
       </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K234" t="n">
+      <c r="J234" t="n">
         <v>232</v>
       </c>
     </row>
@@ -11474,12 +10304,7 @@
       <c r="I235" t="n">
         <v>-0.1667586968525676</v>
       </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K235" t="n">
+      <c r="J235" t="n">
         <v>235</v>
       </c>
     </row>
@@ -11521,12 +10346,7 @@
       <c r="I236" t="n">
         <v>-0.16996699669967</v>
       </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K236" t="n">
+      <c r="J236" t="n">
         <v>234</v>
       </c>
     </row>
@@ -11568,12 +10388,7 @@
       <c r="I237" t="n">
         <v>-0.2692493946731234</v>
       </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K237" t="n">
+      <c r="J237" t="n">
         <v>235</v>
       </c>
     </row>
@@ -11615,12 +10430,7 @@
       <c r="I238" t="n">
         <v>-0.1946380697050938</v>
       </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K238" t="n">
+      <c r="J238" t="n">
         <v>237</v>
       </c>
     </row>
@@ -11662,12 +10472,7 @@
       <c r="I239" t="n">
         <v>-0.1078665077473183</v>
       </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K239" t="n">
+      <c r="J239" t="n">
         <v>239</v>
       </c>
     </row>
@@ -11709,12 +10514,7 @@
       <c r="I240" t="n">
         <v>-0.01577909270216964</v>
       </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K240" t="n">
+      <c r="J240" t="n">
         <v>238</v>
       </c>
     </row>
@@ -11756,12 +10556,7 @@
       <c r="I241" t="n">
         <v>-0.202572347266881</v>
       </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K241" t="n">
+      <c r="J241" t="n">
         <v>240</v>
       </c>
     </row>
@@ -11803,12 +10598,7 @@
       <c r="I242" t="n">
         <v>-0.1383720930232558</v>
       </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K242" t="n">
+      <c r="J242" t="n">
         <v>241</v>
       </c>
     </row>
@@ -11850,12 +10640,7 @@
       <c r="I243" t="n">
         <v>-0.2151965993623805</v>
       </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K243" t="n">
+      <c r="J243" t="n">
         <v>242</v>
       </c>
     </row>
@@ -11897,12 +10682,7 @@
       <c r="I244" t="n">
         <v>-0.1764705882352942</v>
       </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K244" t="n">
+      <c r="J244" t="n">
         <v>243</v>
       </c>
     </row>
@@ -11944,12 +10724,7 @@
       <c r="I245" t="n">
         <v>-0.1542028985507246</v>
       </c>
-      <c r="J245" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K245" t="n">
+      <c r="J245" t="n">
         <v>245</v>
       </c>
     </row>
@@ -11991,12 +10766,7 @@
       <c r="I246" t="n">
         <v>-0.1629374641422834</v>
       </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K246" t="n">
+      <c r="J246" t="n">
         <v>244</v>
       </c>
     </row>
@@ -12038,12 +10808,7 @@
       <c r="I247" t="n">
         <v>-0.1999999999999999</v>
       </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K247" t="n">
+      <c r="J247" t="n">
         <v>246</v>
       </c>
     </row>
@@ -12085,12 +10850,7 @@
       <c r="I248" t="n">
         <v>-0.2507739938080495</v>
       </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K248" t="n">
+      <c r="J248" t="n">
         <v>247</v>
       </c>
     </row>
@@ -12132,12 +10892,7 @@
       <c r="I249" t="n">
         <v>-0.2923976608187134</v>
       </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K249" t="n">
+      <c r="J249" t="n">
         <v>248</v>
       </c>
     </row>
@@ -12179,12 +10934,7 @@
       <c r="I250" t="n">
         <v>-0.176437108708025</v>
       </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K250" t="n">
+      <c r="J250" t="n">
         <v>249</v>
       </c>
     </row>
@@ -12226,12 +10976,7 @@
       <c r="I251" t="n">
         <v>-0.1089108910891089</v>
       </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K251" t="n">
+      <c r="J251" t="n">
         <v>250</v>
       </c>
     </row>
@@ -12273,12 +11018,7 @@
       <c r="I252" t="n">
         <v>-0.2615384615384615</v>
       </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K252" t="n">
+      <c r="J252" t="n">
         <v>250</v>
       </c>
     </row>
@@ -12320,12 +11060,7 @@
       <c r="I253" t="n">
         <v>-0.2806224899598394</v>
       </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K253" t="n">
+      <c r="J253" t="n">
         <v>252</v>
       </c>
     </row>
@@ -12367,12 +11102,7 @@
       <c r="I254" t="n">
         <v>-0.1697566628041716</v>
       </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K254" t="n">
+      <c r="J254" t="n">
         <v>253</v>
       </c>
     </row>
@@ -12414,12 +11144,7 @@
       <c r="I255" t="n">
         <v>0.07843137254901968</v>
       </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K255" t="n">
+      <c r="J255" t="n">
         <v>254</v>
       </c>
     </row>
@@ -12461,12 +11186,7 @@
       <c r="I256" t="n">
         <v>-0.1244635193133047</v>
       </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K256" t="n">
+      <c r="J256" t="n">
         <v>255</v>
       </c>
     </row>
@@ -12508,12 +11228,7 @@
       <c r="I257" t="n">
         <v>-0.1262254901960785</v>
       </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K257" t="n">
+      <c r="J257" t="n">
         <v>256</v>
       </c>
     </row>
@@ -12555,12 +11270,7 @@
       <c r="I258" t="n">
         <v>0.002818886539816838</v>
       </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K258" t="n">
+      <c r="J258" t="n">
         <v>257</v>
       </c>
     </row>
@@ -12602,12 +11312,7 @@
       <c r="I259" t="n">
         <v>-0.2205156335710367</v>
       </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K259" t="n">
+      <c r="J259" t="n">
         <v>258</v>
       </c>
     </row>
@@ -12649,12 +11354,7 @@
       <c r="I260" t="n">
         <v>0.01572551822730526</v>
       </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K260" t="n">
+      <c r="J260" t="n">
         <v>259</v>
       </c>
     </row>
@@ -12696,12 +11396,7 @@
       <c r="I261" t="n">
         <v>-0.3228120516499283</v>
       </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K261" t="n">
+      <c r="J261" t="n">
         <v>261</v>
       </c>
     </row>
@@ -12743,12 +11438,7 @@
       <c r="I262" t="n">
         <v>-0.06163021868787275</v>
       </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K262" t="n">
+      <c r="J262" t="n">
         <v>260</v>
       </c>
     </row>
@@ -12790,12 +11480,7 @@
       <c r="I263" t="n">
         <v>-0.09073359073359064</v>
       </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K263" t="n">
+      <c r="J263" t="n">
         <v>262</v>
       </c>
     </row>
@@ -12837,12 +11522,7 @@
       <c r="I264" t="n">
         <v>-0.1626112759643918</v>
       </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K264" t="n">
+      <c r="J264" t="n">
         <v>263</v>
       </c>
     </row>
@@ -12884,12 +11564,7 @@
       <c r="I265" t="n">
         <v>-0.1121613106490233</v>
       </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K265" t="n">
+      <c r="J265" t="n">
         <v>264</v>
       </c>
     </row>
@@ -12931,12 +11606,7 @@
       <c r="I266" t="n">
         <v>-0.276376737004632</v>
       </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K266" t="n">
+      <c r="J266" t="n">
         <v>265</v>
       </c>
     </row>
@@ -12978,12 +11648,7 @@
       <c r="I267" t="n">
         <v>-0.2493326214628938</v>
       </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K267" t="n">
+      <c r="J267" t="n">
         <v>265</v>
       </c>
     </row>
@@ -13025,12 +11690,7 @@
       <c r="I268" t="n">
         <v>-0.343311506080449</v>
       </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K268" t="n">
+      <c r="J268" t="n">
         <v>267</v>
       </c>
     </row>
@@ -13072,12 +11732,7 @@
       <c r="I269" t="n">
         <v>0.08892355694227773</v>
       </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K269" t="n">
+      <c r="J269" t="n">
         <v>268</v>
       </c>
     </row>
@@ -13119,12 +11774,7 @@
       <c r="I270" t="n">
         <v>-0.03790489317711915</v>
       </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K270" t="n">
+      <c r="J270" t="n">
         <v>269</v>
       </c>
     </row>
@@ -13166,12 +11816,7 @@
       <c r="I271" t="n">
         <v>-0.2155858930602958</v>
       </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K271" t="n">
+      <c r="J271" t="n">
         <v>270</v>
       </c>
     </row>
@@ -13213,12 +11858,7 @@
       <c r="I272" t="n">
         <v>-0.1453416149068324</v>
       </c>
-      <c r="J272" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K272" t="n">
+      <c r="J272" t="n">
         <v>271</v>
       </c>
     </row>
@@ -13260,12 +11900,7 @@
       <c r="I273" t="n">
         <v>-0.02907801418439717</v>
       </c>
-      <c r="J273" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K273" t="n">
+      <c r="J273" t="n">
         <v>272</v>
       </c>
     </row>
@@ -13307,12 +11942,7 @@
       <c r="I274" t="n">
         <v>-0.21994301994302</v>
       </c>
-      <c r="J274" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K274" t="n">
+      <c r="J274" t="n">
         <v>272</v>
       </c>
     </row>
@@ -13354,12 +11984,7 @@
       <c r="I275" t="n">
         <v>-0.1110389610389611</v>
       </c>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K275" t="n">
+      <c r="J275" t="n">
         <v>272</v>
       </c>
     </row>
@@ -13401,12 +12026,7 @@
       <c r="I276" t="n">
         <v>0.1217105263157895</v>
       </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K276" t="n">
+      <c r="J276" t="n">
         <v>276</v>
       </c>
     </row>
@@ -13448,12 +12068,7 @@
       <c r="I277" t="n">
         <v>-0.1564625850340137</v>
       </c>
-      <c r="J277" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K277" t="n">
+      <c r="J277" t="n">
         <v>275</v>
       </c>
     </row>
@@ -13495,12 +12110,7 @@
       <c r="I278" t="n">
         <v>-0.1046052631578947</v>
       </c>
-      <c r="J278" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K278" t="n">
+      <c r="J278" t="n">
         <v>277</v>
       </c>
     </row>
@@ -13542,12 +12152,7 @@
       <c r="I279" t="n">
         <v>-0.1073074391046741</v>
       </c>
-      <c r="J279" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K279" t="n">
+      <c r="J279" t="n">
         <v>279</v>
       </c>
     </row>
@@ -13589,12 +12194,7 @@
       <c r="I280" t="n">
         <v>-0.1340996168582375</v>
       </c>
-      <c r="J280" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K280" t="n">
+      <c r="J280" t="n">
         <v>278</v>
       </c>
     </row>
@@ -13636,12 +12236,7 @@
       <c r="I281" t="n">
         <v>-0.2377979568671964</v>
       </c>
-      <c r="J281" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K281" t="n">
+      <c r="J281" t="n">
         <v>280</v>
       </c>
     </row>
@@ -13683,12 +12278,7 @@
       <c r="I282" t="n">
         <v>-0.2316933638443936</v>
       </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K282" t="n">
+      <c r="J282" t="n">
         <v>281</v>
       </c>
     </row>
@@ -13730,12 +12320,7 @@
       <c r="I283" t="n">
         <v>-0.1651090342679128</v>
       </c>
-      <c r="J283" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K283" t="n">
+      <c r="J283" t="n">
         <v>282</v>
       </c>
     </row>
@@ -13777,12 +12362,7 @@
       <c r="I284" t="n">
         <v>-0.01470588235294112</v>
       </c>
-      <c r="J284" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K284" t="n">
+      <c r="J284" t="n">
         <v>284</v>
       </c>
     </row>
@@ -13824,12 +12404,7 @@
       <c r="I285" t="n">
         <v>-0.1338073691014868</v>
       </c>
-      <c r="J285" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K285" t="n">
+      <c r="J285" t="n">
         <v>285</v>
       </c>
     </row>
@@ -13871,12 +12446,7 @@
       <c r="I286" t="n">
         <v>-0.01903367496339676</v>
       </c>
-      <c r="J286" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K286" t="n">
+      <c r="J286" t="n">
         <v>283</v>
       </c>
     </row>
@@ -13918,12 +12488,7 @@
       <c r="I287" t="n">
         <v>-0.1293047433398311</v>
       </c>
-      <c r="J287" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K287" t="n">
+      <c r="J287" t="n">
         <v>286</v>
       </c>
     </row>
@@ -13965,12 +12530,7 @@
       <c r="I288" t="n">
         <v>-0.1781326781326781</v>
       </c>
-      <c r="J288" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K288" t="n">
+      <c r="J288" t="n">
         <v>287</v>
       </c>
     </row>
@@ -14012,12 +12572,7 @@
       <c r="I289" t="n">
         <v>-0.2807112068965517</v>
       </c>
-      <c r="J289" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K289" t="n">
+      <c r="J289" t="n">
         <v>288</v>
       </c>
     </row>
@@ -14059,12 +12614,7 @@
       <c r="I290" t="n">
         <v>-0.3166838311019568</v>
       </c>
-      <c r="J290" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K290" t="n">
+      <c r="J290" t="n">
         <v>289</v>
       </c>
     </row>
@@ -14106,12 +12656,7 @@
       <c r="I291" t="n">
         <v>-0.2163604030823948</v>
       </c>
-      <c r="J291" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K291" t="n">
+      <c r="J291" t="n">
         <v>290</v>
       </c>
     </row>
@@ -14153,12 +12698,7 @@
       <c r="I292" t="n">
         <v>-0.1883076923076923</v>
       </c>
-      <c r="J292" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K292" t="n">
+      <c r="J292" t="n">
         <v>291</v>
       </c>
     </row>
@@ -14200,12 +12740,7 @@
       <c r="I293" t="n">
         <v>-0.09428768066070195</v>
       </c>
-      <c r="J293" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K293" t="n">
+      <c r="J293" t="n">
         <v>292</v>
       </c>
     </row>
@@ -14247,12 +12782,7 @@
       <c r="I294" t="n">
         <v>-0.2859468258274552</v>
       </c>
-      <c r="J294" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K294" t="n">
+      <c r="J294" t="n">
         <v>292</v>
       </c>
     </row>
@@ -14294,12 +12824,7 @@
       <c r="I295" t="n">
         <v>-0.1952117863720074</v>
       </c>
-      <c r="J295" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K295" t="n">
+      <c r="J295" t="n">
         <v>294</v>
       </c>
     </row>
@@ -14341,12 +12866,7 @@
       <c r="I296" t="n">
         <v>-0.2091898428053204</v>
       </c>
-      <c r="J296" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K296" t="n">
+      <c r="J296" t="n">
         <v>295</v>
       </c>
     </row>
@@ -14388,12 +12908,7 @@
       <c r="I297" t="n">
         <v>-0.2017114914425427</v>
       </c>
-      <c r="J297" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K297" t="n">
+      <c r="J297" t="n">
         <v>296</v>
       </c>
     </row>
@@ -14435,12 +12950,7 @@
       <c r="I298" t="n">
         <v>-0.1347565043362241</v>
       </c>
-      <c r="J298" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K298" t="n">
+      <c r="J298" t="n">
         <v>297</v>
       </c>
     </row>
@@ -14482,12 +12992,7 @@
       <c r="I299" t="n">
         <v>-0.09122807017543864</v>
       </c>
-      <c r="J299" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K299" t="n">
+      <c r="J299" t="n">
         <v>298</v>
       </c>
     </row>
@@ -14529,12 +13034,7 @@
       <c r="I300" t="n">
         <v>-0.1772554002541297</v>
       </c>
-      <c r="J300" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K300" t="n">
+      <c r="J300" t="n">
         <v>299</v>
       </c>
     </row>
@@ -14576,12 +13076,7 @@
       <c r="I301" t="n">
         <v>-0.1019553072625699</v>
       </c>
-      <c r="J301" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K301" t="n">
+      <c r="J301" t="n">
         <v>300</v>
       </c>
     </row>
@@ -14623,12 +13118,7 @@
       <c r="I302" t="n">
         <v>-0.3412371134020619</v>
       </c>
-      <c r="J302" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K302" t="n">
+      <c r="J302" t="n">
         <v>301</v>
       </c>
     </row>
@@ -14670,12 +13160,7 @@
       <c r="I303" t="n">
         <v>-0.1641595814257685</v>
       </c>
-      <c r="J303" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K303" t="n">
+      <c r="J303" t="n">
         <v>302</v>
       </c>
     </row>
@@ -14717,12 +13202,7 @@
       <c r="I304" t="n">
         <v>-0.0848310567936736</v>
       </c>
-      <c r="J304" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K304" t="n">
+      <c r="J304" t="n">
         <v>303</v>
       </c>
     </row>
@@ -14764,12 +13244,7 @@
       <c r="I305" t="n">
         <v>-0.1613119143239625</v>
       </c>
-      <c r="J305" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K305" t="n">
+      <c r="J305" t="n">
         <v>304</v>
       </c>
     </row>
@@ -14811,12 +13286,7 @@
       <c r="I306" t="n">
         <v>-0.2274969173859433</v>
       </c>
-      <c r="J306" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K306" t="n">
+      <c r="J306" t="n">
         <v>304</v>
       </c>
     </row>
@@ -14858,12 +13328,7 @@
       <c r="I307" t="n">
         <v>-0.2201375859912445</v>
       </c>
-      <c r="J307" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K307" t="n">
+      <c r="J307" t="n">
         <v>306</v>
       </c>
     </row>
@@ -14905,12 +13370,7 @@
       <c r="I308" t="n">
         <v>-0.10310021629416</v>
       </c>
-      <c r="J308" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K308" t="n">
+      <c r="J308" t="n">
         <v>308</v>
       </c>
     </row>
@@ -14952,12 +13412,7 @@
       <c r="I309" t="n">
         <v>-0.2995495495495497</v>
       </c>
-      <c r="J309" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K309" t="n">
+      <c r="J309" t="n">
         <v>307</v>
       </c>
     </row>
@@ -14999,12 +13454,7 @@
       <c r="I310" t="n">
         <v>-0.2673733804475855</v>
       </c>
-      <c r="J310" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K310" t="n">
+      <c r="J310" t="n">
         <v>308</v>
       </c>
     </row>
@@ -15046,12 +13496,7 @@
       <c r="I311" t="n">
         <v>-0.1904761904761904</v>
       </c>
-      <c r="J311" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K311" t="n">
+      <c r="J311" t="n">
         <v>310</v>
       </c>
     </row>
@@ -15093,12 +13538,7 @@
       <c r="I312" t="n">
         <v>-0.2102199223803363</v>
       </c>
-      <c r="J312" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K312" t="n">
+      <c r="J312" t="n">
         <v>311</v>
       </c>
     </row>
@@ -15140,12 +13580,7 @@
       <c r="I313" t="n">
         <v>-0.240174672489083</v>
       </c>
-      <c r="J313" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K313" t="n">
+      <c r="J313" t="n">
         <v>312</v>
       </c>
     </row>
@@ -15187,12 +13622,7 @@
       <c r="I314" t="n">
         <v>-0.1533101045296167</v>
       </c>
-      <c r="J314" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K314" t="n">
+      <c r="J314" t="n">
         <v>313</v>
       </c>
     </row>
@@ -15234,12 +13664,7 @@
       <c r="I315" t="n">
         <v>-0.1236442516268981</v>
       </c>
-      <c r="J315" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K315" t="n">
+      <c r="J315" t="n">
         <v>314</v>
       </c>
     </row>
@@ -15281,12 +13706,7 @@
       <c r="I316" t="n">
         <v>-0.2565217391304348</v>
       </c>
-      <c r="J316" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K316" t="n">
+      <c r="J316" t="n">
         <v>315</v>
       </c>
     </row>
@@ -15328,12 +13748,7 @@
       <c r="I317" t="n">
         <v>-0.294431279620853</v>
       </c>
-      <c r="J317" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K317" t="n">
+      <c r="J317" t="n">
         <v>316</v>
       </c>
     </row>
@@ -15375,12 +13790,7 @@
       <c r="I318" t="n">
         <v>-0.05849802371541504</v>
       </c>
-      <c r="J318" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K318" t="n">
+      <c r="J318" t="n">
         <v>317</v>
       </c>
     </row>
@@ -15422,12 +13832,7 @@
       <c r="I319" t="n">
         <v>-0.1976980365605958</v>
       </c>
-      <c r="J319" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K319" t="n">
+      <c r="J319" t="n">
         <v>318</v>
       </c>
     </row>
@@ -15469,12 +13874,7 @@
       <c r="I320" t="n">
         <v>-0.3805541035023523</v>
       </c>
-      <c r="J320" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K320" t="n">
+      <c r="J320" t="n">
         <v>318</v>
       </c>
     </row>
@@ -15516,12 +13916,7 @@
       <c r="I321" t="n">
         <v>-0.2952779438135087</v>
       </c>
-      <c r="J321" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K321" t="n">
+      <c r="J321" t="n">
         <v>321</v>
       </c>
     </row>
@@ -15563,12 +13958,7 @@
       <c r="I322" t="n">
         <v>-0.3204610951008647</v>
       </c>
-      <c r="J322" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K322" t="n">
+      <c r="J322" t="n">
         <v>320</v>
       </c>
     </row>
@@ -15610,12 +14000,7 @@
       <c r="I323" t="n">
         <v>-0.2608422375864237</v>
       </c>
-      <c r="J323" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K323" t="n">
+      <c r="J323" t="n">
         <v>322</v>
       </c>
     </row>
@@ -15657,12 +14042,7 @@
       <c r="I324" t="n">
         <v>-0.2232496697490093</v>
       </c>
-      <c r="J324" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K324" t="n">
+      <c r="J324" t="n">
         <v>323</v>
       </c>
     </row>
@@ -15704,12 +14084,7 @@
       <c r="I325" t="n">
         <v>-0.3098591549295774</v>
       </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K325" t="n">
+      <c r="J325" t="n">
         <v>324</v>
       </c>
     </row>
@@ -15751,12 +14126,7 @@
       <c r="I326" t="n">
         <v>-0.170333569907736</v>
       </c>
-      <c r="J326" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K326" t="n">
+      <c r="J326" t="n">
         <v>325</v>
       </c>
     </row>
@@ -15798,12 +14168,7 @@
       <c r="I327" t="n">
         <v>-0.2890243902439024</v>
       </c>
-      <c r="J327" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K327" t="n">
+      <c r="J327" t="n">
         <v>326</v>
       </c>
     </row>
@@ -15845,12 +14210,7 @@
       <c r="I328" t="n">
         <v>-0.3656147986942328</v>
       </c>
-      <c r="J328" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K328" t="n">
+      <c r="J328" t="n">
         <v>327</v>
       </c>
     </row>
@@ -15892,12 +14252,7 @@
       <c r="I329" t="n">
         <v>-0.3234438627108784</v>
       </c>
-      <c r="J329" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K329" t="n">
+      <c r="J329" t="n">
         <v>328</v>
       </c>
     </row>
@@ -15939,12 +14294,7 @@
       <c r="I330" t="n">
         <v>-0.239344262295082</v>
       </c>
-      <c r="J330" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K330" t="n">
+      <c r="J330" t="n">
         <v>329</v>
       </c>
     </row>
@@ -15986,12 +14336,7 @@
       <c r="I331" t="n">
         <v>-0.3294797687861272</v>
       </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K331" t="n">
+      <c r="J331" t="n">
         <v>330</v>
       </c>
     </row>
@@ -16033,12 +14378,7 @@
       <c r="I332" t="n">
         <v>-0.2554697554697554</v>
       </c>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K332" t="n">
+      <c r="J332" t="n">
         <v>331</v>
       </c>
     </row>
@@ -16080,12 +14420,7 @@
       <c r="I333" t="n">
         <v>-0.1257575757575758</v>
       </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K333" t="n">
+      <c r="J333" t="n">
         <v>332</v>
       </c>
     </row>
@@ -16127,12 +14462,7 @@
       <c r="I334" t="n">
         <v>-0.2249158249158249</v>
       </c>
-      <c r="J334" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K334" t="n">
+      <c r="J334" t="n">
         <v>333</v>
       </c>
     </row>
@@ -16174,12 +14504,7 @@
       <c r="I335" t="n">
         <v>-0.2243935309973046</v>
       </c>
-      <c r="J335" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K335" t="n">
+      <c r="J335" t="n">
         <v>334</v>
       </c>
     </row>
@@ -16221,12 +14546,7 @@
       <c r="I336" t="n">
         <v>-0.2635956493921945</v>
       </c>
-      <c r="J336" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K336" t="n">
+      <c r="J336" t="n">
         <v>334</v>
       </c>
     </row>
@@ -16268,12 +14588,7 @@
       <c r="I337" t="n">
         <v>-0.3210682492581603</v>
       </c>
-      <c r="J337" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K337" t="n">
+      <c r="J337" t="n">
         <v>336</v>
       </c>
     </row>
@@ -16315,12 +14630,7 @@
       <c r="I338" t="n">
         <v>-0.1964788732394366</v>
       </c>
-      <c r="J338" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K338" t="n">
+      <c r="J338" t="n">
         <v>337</v>
       </c>
     </row>
@@ -16362,12 +14672,7 @@
       <c r="I339" t="n">
         <v>-0.2188575361321404</v>
       </c>
-      <c r="J339" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K339" t="n">
+      <c r="J339" t="n">
         <v>338</v>
       </c>
     </row>
@@ -16409,12 +14714,7 @@
       <c r="I340" t="n">
         <v>-0.1992882562277581</v>
       </c>
-      <c r="J340" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K340" t="n">
+      <c r="J340" t="n">
         <v>339</v>
       </c>
     </row>
@@ -16456,12 +14756,7 @@
       <c r="I341" t="n">
         <v>-0.1472158657513349</v>
       </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K341" t="n">
+      <c r="J341" t="n">
         <v>340</v>
       </c>
     </row>
@@ -16503,12 +14798,7 @@
       <c r="I342" t="n">
         <v>-0.2965299684542587</v>
       </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K342" t="n">
+      <c r="J342" t="n">
         <v>341</v>
       </c>
     </row>
@@ -16550,12 +14840,7 @@
       <c r="I343" t="n">
         <v>-0.2615894039735099</v>
       </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K343" t="n">
+      <c r="J343" t="n">
         <v>342</v>
       </c>
     </row>
@@ -16597,12 +14882,7 @@
       <c r="I344" t="n">
         <v>-0.3116076970825574</v>
       </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K344" t="n">
+      <c r="J344" t="n">
         <v>344</v>
       </c>
     </row>
@@ -16644,12 +14924,7 @@
       <c r="I345" t="n">
         <v>-0.1975397973950796</v>
       </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K345" t="n">
+      <c r="J345" t="n">
         <v>343</v>
       </c>
     </row>
@@ -16691,12 +14966,7 @@
       <c r="I346" t="n">
         <v>0.055396370582617</v>
       </c>
-      <c r="J346" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K346" t="n">
+      <c r="J346" t="n">
         <v>345</v>
       </c>
     </row>
@@ -16738,12 +15008,7 @@
       <c r="I347" t="n">
         <v>-0.2436513383665066</v>
       </c>
-      <c r="J347" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K347" t="n">
+      <c r="J347" t="n">
         <v>347</v>
       </c>
     </row>
@@ -16785,12 +15050,7 @@
       <c r="I348" t="n">
         <v>-0.3432657926102504</v>
       </c>
-      <c r="J348" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K348" t="n">
+      <c r="J348" t="n">
         <v>346</v>
       </c>
     </row>
@@ -16832,12 +15092,7 @@
       <c r="I349" t="n">
         <v>-0.220014194464159</v>
       </c>
-      <c r="J349" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K349" t="n">
+      <c r="J349" t="n">
         <v>348</v>
       </c>
     </row>
@@ -16879,12 +15134,7 @@
       <c r="I350" t="n">
         <v>0.1225740551583249</v>
       </c>
-      <c r="J350" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K350" t="n">
+      <c r="J350" t="n">
         <v>348</v>
       </c>
     </row>
@@ -16926,12 +15176,7 @@
       <c r="I351" t="n">
         <v>-0.3551236749116609</v>
       </c>
-      <c r="J351" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K351" t="n">
+      <c r="J351" t="n">
         <v>350</v>
       </c>
     </row>
@@ -16973,12 +15218,7 @@
       <c r="I352" t="n">
         <v>-0.2484557309540152</v>
       </c>
-      <c r="J352" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K352" t="n">
+      <c r="J352" t="n">
         <v>351</v>
       </c>
     </row>
@@ -17020,12 +15260,7 @@
       <c r="I353" t="n">
         <v>-0.210412147505423</v>
       </c>
-      <c r="J353" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K353" t="n">
+      <c r="J353" t="n">
         <v>352</v>
       </c>
     </row>
@@ -17067,12 +15302,7 @@
       <c r="I354" t="n">
         <v>-0.2773722627737226</v>
       </c>
-      <c r="J354" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K354" t="n">
+      <c r="J354" t="n">
         <v>353</v>
       </c>
     </row>
@@ -17114,12 +15344,7 @@
       <c r="I355" t="n">
         <v>-0.3075941289087428</v>
       </c>
-      <c r="J355" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K355" t="n">
+      <c r="J355" t="n">
         <v>354</v>
       </c>
     </row>
@@ -17161,12 +15386,7 @@
       <c r="I356" t="n">
         <v>-0.1533646322378716</v>
       </c>
-      <c r="J356" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K356" t="n">
+      <c r="J356" t="n">
         <v>355</v>
       </c>
     </row>
@@ -17208,12 +15428,7 @@
       <c r="I357" t="n">
         <v>-0.06884681583476755</v>
       </c>
-      <c r="J357" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K357" t="n">
+      <c r="J357" t="n">
         <v>357</v>
       </c>
     </row>
@@ -17255,12 +15470,7 @@
       <c r="I358" t="n">
         <v>-0.05831157528285465</v>
       </c>
-      <c r="J358" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K358" t="n">
+      <c r="J358" t="n">
         <v>355</v>
       </c>
     </row>
@@ -17302,12 +15512,7 @@
       <c r="I359" t="n">
         <v>-0.1701308698999231</v>
       </c>
-      <c r="J359" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K359" t="n">
+      <c r="J359" t="n">
         <v>358</v>
       </c>
     </row>
@@ -17349,12 +15554,7 @@
       <c r="I360" t="n">
         <v>-0.2420156139105749</v>
       </c>
-      <c r="J360" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K360" t="n">
+      <c r="J360" t="n">
         <v>359</v>
       </c>
     </row>
@@ -17396,12 +15596,7 @@
       <c r="I361" t="n">
         <v>-0.3966101694915254</v>
       </c>
-      <c r="J361" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K361" t="n">
+      <c r="J361" t="n">
         <v>359</v>
       </c>
     </row>
@@ -17443,12 +15638,7 @@
       <c r="I362" t="n">
         <v>-0.4079462786793509</v>
       </c>
-      <c r="J362" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K362" t="n">
+      <c r="J362" t="n">
         <v>362</v>
       </c>
     </row>
@@ -17490,12 +15680,7 @@
       <c r="I363" t="n">
         <v>-0.3735938425103612</v>
       </c>
-      <c r="J363" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K363" t="n">
+      <c r="J363" t="n">
         <v>361</v>
       </c>
     </row>
@@ -17537,12 +15722,7 @@
       <c r="I364" t="n">
         <v>-0.1335531739488871</v>
       </c>
-      <c r="J364" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K364" t="n">
+      <c r="J364" t="n">
         <v>363</v>
       </c>
     </row>
@@ -17584,12 +15764,7 @@
       <c r="I365" t="n">
         <v>-0.3394321766561514</v>
       </c>
-      <c r="J365" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K365" t="n">
+      <c r="J365" t="n">
         <v>364</v>
       </c>
     </row>
@@ -17631,12 +15806,7 @@
       <c r="I366" t="n">
         <v>-0.2929979605710401</v>
       </c>
-      <c r="J366" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K366" t="n">
+      <c r="J366" t="n">
         <v>365</v>
       </c>
     </row>
@@ -17678,12 +15848,7 @@
       <c r="I367" t="n">
         <v>-0.3333333333333334</v>
       </c>
-      <c r="J367" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K367" t="n">
+      <c r="J367" t="n">
         <v>366</v>
       </c>
     </row>
@@ -17725,12 +15890,7 @@
       <c r="I368" t="n">
         <v>-0.402696365767878</v>
       </c>
-      <c r="J368" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K368" t="n">
+      <c r="J368" t="n">
         <v>367</v>
       </c>
     </row>
@@ -17772,12 +15932,7 @@
       <c r="I369" t="n">
         <v>-0.1597682119205298</v>
       </c>
-      <c r="J369" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K369" t="n">
+      <c r="J369" t="n">
         <v>368</v>
       </c>
     </row>
@@ -17819,12 +15974,7 @@
       <c r="I370" t="n">
         <v>-0.2580409356725146</v>
       </c>
-      <c r="J370" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K370" t="n">
+      <c r="J370" t="n">
         <v>368</v>
       </c>
     </row>
@@ -17866,12 +16016,7 @@
       <c r="I371" t="n">
         <v>-0.4596903363587828</v>
       </c>
-      <c r="J371" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K371" t="n">
+      <c r="J371" t="n">
         <v>370</v>
       </c>
     </row>
@@ -17913,12 +16058,7 @@
       <c r="I372" t="n">
         <v>-0.4073199527744983</v>
       </c>
-      <c r="J372" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K372" t="n">
+      <c r="J372" t="n">
         <v>371</v>
       </c>
     </row>
@@ -17960,12 +16100,7 @@
       <c r="I373" t="n">
         <v>-0.2311827956989247</v>
       </c>
-      <c r="J373" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K373" t="n">
+      <c r="J373" t="n">
         <v>372</v>
       </c>
     </row>
@@ -18007,12 +16142,7 @@
       <c r="I374" t="n">
         <v>-0.2738528769118718</v>
       </c>
-      <c r="J374" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K374" t="n">
+      <c r="J374" t="n">
         <v>375</v>
       </c>
     </row>
@@ -18054,12 +16184,7 @@
       <c r="I375" t="n">
         <v>-0.3551099611901682</v>
       </c>
-      <c r="J375" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K375" t="n">
+      <c r="J375" t="n">
         <v>373</v>
       </c>
     </row>
@@ -18101,12 +16226,7 @@
       <c r="I376" t="n">
         <v>-0.3693864642631246</v>
       </c>
-      <c r="J376" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K376" t="n">
+      <c r="J376" t="n">
         <v>374</v>
       </c>
     </row>
@@ -18148,12 +16268,7 @@
       <c r="I377" t="n">
         <v>-0.4313612866168868</v>
       </c>
-      <c r="J377" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K377" t="n">
+      <c r="J377" t="n">
         <v>376</v>
       </c>
     </row>
@@ -18195,12 +16310,7 @@
       <c r="I378" t="n">
         <v>-0.2369852369852369</v>
       </c>
-      <c r="J378" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K378" t="n">
+      <c r="J378" t="n">
         <v>377</v>
       </c>
     </row>
@@ -18242,12 +16352,7 @@
       <c r="I379" t="n">
         <v>-0.2156549520766773</v>
       </c>
-      <c r="J379" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K379" t="n">
+      <c r="J379" t="n">
         <v>377</v>
       </c>
     </row>
@@ -18289,12 +16394,7 @@
       <c r="I380" t="n">
         <v>-0.3416610398379474</v>
       </c>
-      <c r="J380" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K380" t="n">
+      <c r="J380" t="n">
         <v>379</v>
       </c>
     </row>
@@ -18336,12 +16436,7 @@
       <c r="I381" t="n">
         <v>-0.3566200931470392</v>
       </c>
-      <c r="J381" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K381" t="n">
+      <c r="J381" t="n">
         <v>380</v>
       </c>
     </row>
@@ -18383,12 +16478,7 @@
       <c r="I382" t="n">
         <v>-0.4396703943496174</v>
       </c>
-      <c r="J382" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K382" t="n">
+      <c r="J382" t="n">
         <v>381</v>
       </c>
     </row>
@@ -18430,12 +16520,7 @@
       <c r="I383" t="n">
         <v>-0.4705552439708356</v>
       </c>
-      <c r="J383" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K383" t="n">
+      <c r="J383" t="n">
         <v>382</v>
       </c>
     </row>
@@ -18477,12 +16562,7 @@
       <c r="I384" t="n">
         <v>-0.3970493906350224</v>
       </c>
-      <c r="J384" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K384" t="n">
+      <c r="J384" t="n">
         <v>383</v>
       </c>
     </row>
@@ -18524,12 +16604,7 @@
       <c r="I385" t="n">
         <v>-0.4932614555256065</v>
       </c>
-      <c r="J385" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K385" t="n">
+      <c r="J385" t="n">
         <v>383</v>
       </c>
     </row>
@@ -18571,12 +16646,7 @@
       <c r="I386" t="n">
         <v>-0.4832214765100671</v>
       </c>
-      <c r="J386" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K386" t="n">
+      <c r="J386" t="n">
         <v>385</v>
       </c>
     </row>
@@ -18618,12 +16688,7 @@
       <c r="I387" t="n">
         <v>-0.3441176470588235</v>
       </c>
-      <c r="J387" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K387" t="n">
+      <c r="J387" t="n">
         <v>386</v>
       </c>
     </row>
@@ -18665,12 +16730,7 @@
       <c r="I388" t="n">
         <v>-0.4142568930733019</v>
       </c>
-      <c r="J388" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K388" t="n">
+      <c r="J388" t="n">
         <v>387</v>
       </c>
     </row>
@@ -18712,12 +16772,7 @@
       <c r="I389" t="n">
         <v>-0.3495145631067961</v>
       </c>
-      <c r="J389" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K389" t="n">
+      <c r="J389" t="n">
         <v>388</v>
       </c>
     </row>
@@ -18759,12 +16814,7 @@
       <c r="I390" t="n">
         <v>-0.3140822784810127</v>
       </c>
-      <c r="J390" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K390" t="n">
+      <c r="J390" t="n">
         <v>389</v>
       </c>
     </row>
@@ -18806,12 +16856,7 @@
       <c r="I391" t="n">
         <v>-0.5074200913242009</v>
       </c>
-      <c r="J391" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K391" t="n">
+      <c r="J391" t="n">
         <v>390</v>
       </c>
     </row>
@@ -18853,12 +16898,7 @@
       <c r="I392" t="n">
         <v>-0.296084828711256</v>
       </c>
-      <c r="J392" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K392" t="n">
+      <c r="J392" t="n">
         <v>391</v>
       </c>
     </row>
@@ -18900,12 +16940,7 @@
       <c r="I393" t="n">
         <v>-0.4352469959946595</v>
       </c>
-      <c r="J393" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K393" t="n">
+      <c r="J393" t="n">
         <v>392</v>
       </c>
     </row>
@@ -18947,12 +16982,7 @@
       <c r="I394" t="n">
         <v>-0.3121951219512195</v>
       </c>
-      <c r="J394" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K394" t="n">
+      <c r="J394" t="n">
         <v>392</v>
       </c>
     </row>
@@ -18994,12 +17024,7 @@
       <c r="I395" t="n">
         <v>-0.3820474777448071</v>
       </c>
-      <c r="J395" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K395" t="n">
+      <c r="J395" t="n">
         <v>394</v>
       </c>
     </row>
@@ -19041,12 +17066,7 @@
       <c r="I396" t="n">
         <v>-0.4078571428571429</v>
       </c>
-      <c r="J396" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K396" t="n">
+      <c r="J396" t="n">
         <v>396</v>
       </c>
     </row>
@@ -19088,12 +17108,7 @@
       <c r="I397" t="n">
         <v>-0.4706257982120052</v>
       </c>
-      <c r="J397" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K397" t="n">
+      <c r="J397" t="n">
         <v>395</v>
       </c>
     </row>
@@ -19135,12 +17150,7 @@
       <c r="I398" t="n">
         <v>0.03350515463917523</v>
       </c>
-      <c r="J398" t="inlineStr">
-        <is>
-          <t>Slightly Overperforming</t>
-        </is>
-      </c>
-      <c r="K398" t="n">
+      <c r="J398" t="n">
         <v>397</v>
       </c>
     </row>
@@ -19182,12 +17192,7 @@
       <c r="I399" t="n">
         <v>-0.4504504504504505</v>
       </c>
-      <c r="J399" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K399" t="n">
+      <c r="J399" t="n">
         <v>398</v>
       </c>
     </row>
@@ -19229,12 +17234,7 @@
       <c r="I400" t="n">
         <v>-0.515970515970516</v>
       </c>
-      <c r="J400" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K400" t="n">
+      <c r="J400" t="n">
         <v>399</v>
       </c>
     </row>
@@ -19276,12 +17276,7 @@
       <c r="I401" t="n">
         <v>-0.4611683848797251</v>
       </c>
-      <c r="J401" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K401" t="n">
+      <c r="J401" t="n">
         <v>400</v>
       </c>
     </row>
@@ -19323,12 +17318,7 @@
       <c r="I402" t="n">
         <v>-0.4247982391782832</v>
       </c>
-      <c r="J402" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K402" t="n">
+      <c r="J402" t="n">
         <v>400</v>
       </c>
     </row>
@@ -19370,12 +17360,7 @@
       <c r="I403" t="n">
         <v>-0.4028103044496487</v>
       </c>
-      <c r="J403" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K403" t="n">
+      <c r="J403" t="n">
         <v>402</v>
       </c>
     </row>
@@ -19417,12 +17402,7 @@
       <c r="I404" t="n">
         <v>-0.4946164199192463</v>
       </c>
-      <c r="J404" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K404" t="n">
+      <c r="J404" t="n">
         <v>403</v>
       </c>
     </row>
@@ -19464,12 +17444,7 @@
       <c r="I405" t="n">
         <v>-0.3565891472868217</v>
       </c>
-      <c r="J405" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K405" t="n">
+      <c r="J405" t="n">
         <v>404</v>
       </c>
     </row>
@@ -19511,12 +17486,7 @@
       <c r="I406" t="n">
         <v>-0.4914324880054832</v>
       </c>
-      <c r="J406" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K406" t="n">
+      <c r="J406" t="n">
         <v>405</v>
       </c>
     </row>
@@ -19558,12 +17528,7 @@
       <c r="I407" t="n">
         <v>-0.4996582365003417</v>
       </c>
-      <c r="J407" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K407" t="n">
+      <c r="J407" t="n">
         <v>406</v>
       </c>
     </row>
@@ -19605,12 +17570,7 @@
       <c r="I408" t="n">
         <v>-0.5196013289036545</v>
       </c>
-      <c r="J408" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K408" t="n">
+      <c r="J408" t="n">
         <v>407</v>
       </c>
     </row>
@@ -19652,12 +17612,7 @@
       <c r="I409" t="n">
         <v>-0.4229848363926575</v>
       </c>
-      <c r="J409" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K409" t="n">
+      <c r="J409" t="n">
         <v>408</v>
       </c>
     </row>
@@ -19699,12 +17654,7 @@
       <c r="I410" t="n">
         <v>-0.4689349112426036</v>
       </c>
-      <c r="J410" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K410" t="n">
+      <c r="J410" t="n">
         <v>409</v>
       </c>
     </row>
@@ -19746,12 +17696,7 @@
       <c r="I411" t="n">
         <v>-0.4836065573770492</v>
       </c>
-      <c r="J411" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K411" t="n">
+      <c r="J411" t="n">
         <v>410</v>
       </c>
     </row>
@@ -19793,12 +17738,7 @@
       <c r="I412" t="n">
         <v>-0.4967320261437909</v>
       </c>
-      <c r="J412" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K412" t="n">
+      <c r="J412" t="n">
         <v>410</v>
       </c>
     </row>
@@ -19840,12 +17780,7 @@
       <c r="I413" t="n">
         <v>-0.4574468085106383</v>
       </c>
-      <c r="J413" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K413" t="n">
+      <c r="J413" t="n">
         <v>412</v>
       </c>
     </row>
@@ -19887,12 +17822,7 @@
       <c r="I414" t="n">
         <v>-0.5982905982905983</v>
       </c>
-      <c r="J414" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K414" t="n">
+      <c r="J414" t="n">
         <v>413</v>
       </c>
     </row>
@@ -19934,12 +17864,7 @@
       <c r="I415" t="n">
         <v>-0.4230088495575222</v>
       </c>
-      <c r="J415" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K415" t="n">
+      <c r="J415" t="n">
         <v>414</v>
       </c>
     </row>
@@ -19981,12 +17906,7 @@
       <c r="I416" t="n">
         <v>-0.5318991097922849</v>
       </c>
-      <c r="J416" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K416" t="n">
+      <c r="J416" t="n">
         <v>415</v>
       </c>
     </row>
@@ -20028,12 +17948,7 @@
       <c r="I417" t="n">
         <v>-0.4400715563506261</v>
       </c>
-      <c r="J417" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K417" t="n">
+      <c r="J417" t="n">
         <v>416</v>
       </c>
     </row>
@@ -20075,12 +17990,7 @@
       <c r="I418" t="n">
         <v>-0.5725297827610372</v>
       </c>
-      <c r="J418" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K418" t="n">
+      <c r="J418" t="n">
         <v>417</v>
       </c>
     </row>
@@ -20122,12 +18032,7 @@
       <c r="I419" t="n">
         <v>-0.5645277577505408</v>
       </c>
-      <c r="J419" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K419" t="n">
+      <c r="J419" t="n">
         <v>418</v>
       </c>
     </row>
@@ -20169,12 +18074,7 @@
       <c r="I420" t="n">
         <v>-0.5546468401486988</v>
       </c>
-      <c r="J420" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K420" t="n">
+      <c r="J420" t="n">
         <v>419</v>
       </c>
     </row>
@@ -20216,12 +18116,7 @@
       <c r="I421" t="n">
         <v>-0.5145954962468724</v>
       </c>
-      <c r="J421" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K421" t="n">
+      <c r="J421" t="n">
         <v>420</v>
       </c>
     </row>
@@ -20263,12 +18158,7 @@
       <c r="I422" t="n">
         <v>-0.5361736334405145</v>
       </c>
-      <c r="J422" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K422" t="n">
+      <c r="J422" t="n">
         <v>421</v>
       </c>
     </row>
@@ -20310,12 +18200,7 @@
       <c r="I423" t="n">
         <v>-0.6078286558345644</v>
       </c>
-      <c r="J423" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K423" t="n">
+      <c r="J423" t="n">
         <v>422</v>
       </c>
     </row>
@@ -20357,12 +18242,7 @@
       <c r="I424" t="n">
         <v>-0.6073298429319371</v>
       </c>
-      <c r="J424" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K424" t="n">
+      <c r="J424" t="n">
         <v>423</v>
       </c>
     </row>
@@ -20404,12 +18284,7 @@
       <c r="I425" t="n">
         <v>-0.588095238095238</v>
       </c>
-      <c r="J425" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K425" t="n">
+      <c r="J425" t="n">
         <v>425</v>
       </c>
     </row>
@@ -20451,12 +18326,7 @@
       <c r="I426" t="n">
         <v>-0.5117591721542804</v>
       </c>
-      <c r="J426" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K426" t="n">
+      <c r="J426" t="n">
         <v>424</v>
       </c>
     </row>
@@ -20498,12 +18368,7 @@
       <c r="I427" t="n">
         <v>-0.6584553928095873</v>
       </c>
-      <c r="J427" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K427" t="n">
+      <c r="J427" t="n">
         <v>426</v>
       </c>
     </row>
@@ -20545,12 +18410,7 @@
       <c r="I428" t="n">
         <v>-0.6797477224947442</v>
       </c>
-      <c r="J428" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K428" t="n">
+      <c r="J428" t="n">
         <v>427</v>
       </c>
     </row>
@@ -20592,12 +18452,7 @@
       <c r="I429" t="n">
         <v>-0.6579554189085318</v>
       </c>
-      <c r="J429" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K429" t="n">
+      <c r="J429" t="n">
         <v>428</v>
       </c>
     </row>
@@ -20639,12 +18494,7 @@
       <c r="I430" t="n">
         <v>-0.7230769230769231</v>
       </c>
-      <c r="J430" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K430" t="n">
+      <c r="J430" t="n">
         <v>430</v>
       </c>
     </row>
@@ -20686,12 +18536,7 @@
       <c r="I431" t="n">
         <v>-0.6809453471196455</v>
       </c>
-      <c r="J431" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K431" t="n">
+      <c r="J431" t="n">
         <v>429</v>
       </c>
     </row>
@@ -20733,12 +18578,7 @@
       <c r="I432" t="n">
         <v>-0.6298586572438162</v>
       </c>
-      <c r="J432" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K432" t="n">
+      <c r="J432" t="n">
         <v>431</v>
       </c>
     </row>
@@ -20780,12 +18620,7 @@
       <c r="I433" t="n">
         <v>-0.7860054347826086</v>
       </c>
-      <c r="J433" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K433" t="n">
+      <c r="J433" t="n">
         <v>432</v>
       </c>
     </row>
@@ -20827,12 +18662,7 @@
       <c r="I434" t="n">
         <v>-0.8612440191387559</v>
       </c>
-      <c r="J434" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K434" t="n">
+      <c r="J434" t="n">
         <v>434</v>
       </c>
     </row>
@@ -20874,12 +18704,7 @@
       <c r="I435" t="n">
         <v>-0.8465608465608465</v>
       </c>
-      <c r="J435" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K435" t="n">
+      <c r="J435" t="n">
         <v>433</v>
       </c>
     </row>
@@ -20921,12 +18746,7 @@
       <c r="I436" t="n">
         <v>-1</v>
       </c>
-      <c r="J436" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K436" t="n">
+      <c r="J436" t="n">
         <v>435</v>
       </c>
     </row>
@@ -20968,12 +18788,7 @@
       <c r="I437" t="n">
         <v>-1</v>
       </c>
-      <c r="J437" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K437" t="n">
+      <c r="J437" t="n">
         <v>435</v>
       </c>
     </row>
@@ -21015,12 +18830,7 @@
       <c r="I438" t="n">
         <v>-1</v>
       </c>
-      <c r="J438" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K438" t="n">
+      <c r="J438" t="n">
         <v>435</v>
       </c>
     </row>
@@ -21062,12 +18872,7 @@
       <c r="I439" t="n">
         <v>-1</v>
       </c>
-      <c r="J439" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K439" t="n">
+      <c r="J439" t="n">
         <v>435</v>
       </c>
     </row>
@@ -21109,12 +18914,7 @@
       <c r="I440" t="n">
         <v>-1</v>
       </c>
-      <c r="J440" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K440" t="n">
+      <c r="J440" t="n">
         <v>435</v>
       </c>
     </row>
@@ -21156,12 +18956,7 @@
       <c r="I441" t="n">
         <v>-1</v>
       </c>
-      <c r="J441" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K441" t="n">
+      <c r="J441" t="n">
         <v>435</v>
       </c>
     </row>
@@ -21203,12 +18998,7 @@
       <c r="I442" t="n">
         <v>-1</v>
       </c>
-      <c r="J442" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K442" t="n">
+      <c r="J442" t="n">
         <v>435</v>
       </c>
     </row>
@@ -21250,12 +19040,7 @@
       <c r="I443" t="n">
         <v>-1</v>
       </c>
-      <c r="J443" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K443" t="n">
+      <c r="J443" t="n">
         <v>435</v>
       </c>
     </row>
@@ -21297,12 +19082,7 @@
       <c r="I444" t="n">
         <v>-1</v>
       </c>
-      <c r="J444" t="inlineStr">
-        <is>
-          <t>Slightly Underperforming</t>
-        </is>
-      </c>
-      <c r="K444" t="n">
+      <c r="J444" t="n">
         <v>0</v>
       </c>
     </row>
